--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_13_4.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_13_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2137374.729672805</v>
+        <v>-2140303.925050999</v>
       </c>
     </row>
     <row r="7">
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>27.75851419067629</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,16 +905,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>27.75851419067448</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>14.15942171964163</v>
+        <v>14.15942171964162</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>27.75851419067448</v>
+        <v>27.75851419067629</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>27.75851419067448</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>27.75851419067629</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>10.29027757950444</v>
+        <v>3.41423183779462</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -975,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>27.75851419067629</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -990,10 +990,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>27.75851419067448</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>27.75851419067448</v>
+        <v>27.75851419067629</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>27.75851419067448</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>24.44969929914607</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>27.75851419067629</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>24.44969929914767</v>
       </c>
     </row>
     <row r="7">
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>24.44969929914607</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>27.75851419067448</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>27.75851419067448</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>27.75851419067629</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>27.75851419067448</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>24.44969929914767</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>27.75851419067629</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>27.75851419067629</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>239.8079481415051</v>
       </c>
       <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
         <v>239.8079481415051</v>
       </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>36.7770039072493</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
         <v>239.8079481415051</v>
-      </c>
-      <c r="V8" t="n">
-        <v>239.8079481415051</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>191.4298910353894</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1209,13 +1209,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1224,13 +1224,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>45.44580843958667</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.90078060183509</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1272,10 +1272,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>53.51064432605688</v>
+        <v>208.6513529918142</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>5.2028830647872</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1342,19 +1342,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>40.70451503916615</v>
+        <v>239.8079481415051</v>
       </c>
       <c r="V10" t="n">
-        <v>239.8079481415051</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>239.8079481415051</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>178.7452167832143</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1385,7 +1385,7 @@
         <v>410.1644063769637</v>
       </c>
       <c r="H11" t="n">
-        <v>213.8590271221829</v>
+        <v>286.8518683469699</v>
       </c>
       <c r="I11" t="n">
         <v>12.38037836605494</v>
@@ -1424,7 +1424,7 @@
         <v>200.6028050067863</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9345864167828</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,13 +1537,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.6861009032421</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>141.7347076965137</v>
+        <v>119.9658203190202</v>
       </c>
       <c r="I13" t="n">
         <v>86.13649374674407</v>
@@ -1576,13 +1576,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>183.8488525946973</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>218.097472392356</v>
       </c>
       <c r="U13" t="n">
-        <v>8.184796116300845</v>
+        <v>286.1933087134791</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634805</v>
+        <v>19.740979141597</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>346.4037905681058</v>
+        <v>410.1644063769637</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.8518683469699</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>12.38037836605494</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>200.6028050067861</v>
+        <v>200.6028050067863</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9345864167827</v>
+        <v>250.9345864167828</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1768,22 +1768,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229311</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>54.20182560992989</v>
+        <v>165.6861009032421</v>
       </c>
       <c r="H16" t="n">
-        <v>141.7347076965135</v>
+        <v>141.7347076965137</v>
       </c>
       <c r="I16" t="n">
-        <v>86.13649374674392</v>
+        <v>86.13649374674407</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>73.65767465442957</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>183.8488525946971</v>
+        <v>183.8488525946973</v>
       </c>
       <c r="T16" t="n">
-        <v>218.0974723923558</v>
+        <v>218.097472392356</v>
       </c>
       <c r="U16" t="n">
-        <v>286.193308713479</v>
+        <v>286.1933087134791</v>
       </c>
       <c r="V16" t="n">
-        <v>252.1376433238279</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520946</v>
+        <v>137.846260372256</v>
       </c>
     </row>
     <row r="17">
@@ -1859,7 +1859,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H17" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295175</v>
       </c>
       <c r="T17" t="n">
         <v>168.9926026545724</v>
@@ -1904,7 +1904,7 @@
         <v>296.142056117921</v>
       </c>
       <c r="W17" t="n">
-        <v>317.6307663651987</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X17" t="n">
         <v>338.1208983262551</v>
@@ -1941,7 +1941,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I18" t="n">
-        <v>4.866200902188993</v>
+        <v>4.866200902188965</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I19" t="n">
-        <v>54.52629139453015</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>42.04747230221558</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S19" t="n">
         <v>152.2386502424833</v>
@@ -2096,7 +2096,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H20" t="n">
-        <v>255.241665994756</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295181</v>
       </c>
       <c r="T20" t="n">
         <v>168.9926026545724</v>
@@ -2178,7 +2178,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I21" t="n">
-        <v>4.866200902188993</v>
+        <v>4.866200902189007</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>120.6170668389678</v>
+        <v>120.6170668389679</v>
       </c>
       <c r="T21" t="n">
         <v>189.0833237787849</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>148.2217778297235</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C22" t="n">
         <v>135.6366187464139</v>
@@ -2257,7 +2257,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I22" t="n">
-        <v>54.52629139453015</v>
+        <v>54.5262913945289</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>42.04747230221579</v>
+        <v>42.04747230221581</v>
       </c>
       <c r="S22" t="n">
         <v>152.2386502424833</v>
@@ -2333,7 +2333,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H23" t="n">
-        <v>255.2416659947556</v>
+        <v>255.241665994756</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295181</v>
       </c>
       <c r="T23" t="n">
         <v>168.9926026545724</v>
@@ -2381,7 +2381,7 @@
         <v>317.6307663651991</v>
       </c>
       <c r="X23" t="n">
-        <v>338.1208983262551</v>
+        <v>338.1208983262555</v>
       </c>
       <c r="Y23" t="n">
         <v>354.6277363038397</v>
@@ -2415,7 +2415,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I24" t="n">
-        <v>4.866200902188993</v>
+        <v>4.866200902189007</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>120.6170668389678</v>
+        <v>120.6170668389679</v>
       </c>
       <c r="T24" t="n">
         <v>189.0833237787849</v>
@@ -2491,7 +2491,7 @@
         <v>134.0758985510282</v>
       </c>
       <c r="H25" t="n">
-        <v>110.1245053442997</v>
+        <v>110.1245053442985</v>
       </c>
       <c r="I25" t="n">
         <v>54.52629139453015</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.04747230221579</v>
+        <v>42.04747230221581</v>
       </c>
       <c r="S25" t="n">
         <v>152.2386502424833</v>
@@ -2552,25 +2552,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>351.1236393112665</v>
+        <v>351.1236393112666</v>
       </c>
       <c r="C26" t="n">
-        <v>333.6626894187935</v>
+        <v>333.6626894187936</v>
       </c>
       <c r="D26" t="n">
-        <v>323.0728392684689</v>
+        <v>323.072839268469</v>
       </c>
       <c r="E26" t="n">
-        <v>350.3201677200477</v>
+        <v>350.3201677200478</v>
       </c>
       <c r="F26" t="n">
-        <v>375.2658433894974</v>
+        <v>375.2658433894975</v>
       </c>
       <c r="G26" t="n">
-        <v>378.5542040247497</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H26" t="n">
-        <v>255.2416659947558</v>
+        <v>255.2416659947559</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>60.32014642295162</v>
+        <v>60.32014642295179</v>
       </c>
       <c r="T26" t="n">
-        <v>168.9926026545722</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U26" t="n">
-        <v>219.3243840645687</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V26" t="n">
-        <v>296.1420561179208</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W26" t="n">
-        <v>317.630766365199</v>
+        <v>317.6307663651991</v>
       </c>
       <c r="X26" t="n">
-        <v>338.120898326255</v>
+        <v>338.1208983262551</v>
       </c>
       <c r="Y26" t="n">
-        <v>354.6277363038395</v>
+        <v>354.6277363038396</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2652,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I27" t="n">
-        <v>4.866200902188993</v>
+        <v>4.866200902189007</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2682,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>120.6170668389678</v>
+        <v>120.6170668389679</v>
       </c>
       <c r="T27" t="n">
         <v>189.0833237787849</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>148.2217778297232</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C28" t="n">
-        <v>135.6366187464138</v>
+        <v>135.6366187464139</v>
       </c>
       <c r="D28" t="n">
-        <v>117.0052706660017</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E28" t="n">
-        <v>114.8237602943551</v>
+        <v>114.8237602943552</v>
       </c>
       <c r="F28" t="n">
-        <v>113.8108456707172</v>
+        <v>113.8108456707173</v>
       </c>
       <c r="G28" t="n">
-        <v>134.0758985510281</v>
+        <v>134.0758985510282</v>
       </c>
       <c r="H28" t="n">
-        <v>110.1245053442996</v>
+        <v>110.1245053442997</v>
       </c>
       <c r="I28" t="n">
-        <v>54.52629139452999</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.04747230221565</v>
+        <v>42.04747230221579</v>
       </c>
       <c r="S28" t="n">
-        <v>152.2386502424832</v>
+        <v>152.2386502424833</v>
       </c>
       <c r="T28" t="n">
-        <v>186.4872700401419</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U28" t="n">
-        <v>254.583106361265</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V28" t="n">
-        <v>220.5274409716139</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W28" t="n">
-        <v>254.9127959843769</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X28" t="n">
-        <v>194.0994530368231</v>
+        <v>194.0994530368232</v>
       </c>
       <c r="Y28" t="n">
-        <v>186.9744509998807</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>60.32014642295177</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T29" t="n">
         <v>168.9926026545724</v>
@@ -2889,7 +2889,7 @@
         <v>85.68348164116145</v>
       </c>
       <c r="I30" t="n">
-        <v>4.866200902188993</v>
+        <v>4.866200902189007</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2919,7 +2919,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>120.6170668389678</v>
+        <v>120.6170668389679</v>
       </c>
       <c r="T30" t="n">
         <v>189.0833237787849</v>
@@ -2968,7 +2968,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I31" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453012</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3035,7 +3035,7 @@
         <v>323.072839268469</v>
       </c>
       <c r="E32" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200458</v>
       </c>
       <c r="F32" t="n">
         <v>375.2658433894975</v>
@@ -3077,16 +3077,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>60.32014642295181</v>
+        <v>60.32014642295178</v>
       </c>
       <c r="T32" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U32" t="n">
-        <v>219.3243840645689</v>
+        <v>219.3243840645688</v>
       </c>
       <c r="V32" t="n">
-        <v>296.1420561179197</v>
+        <v>296.142056117921</v>
       </c>
       <c r="W32" t="n">
         <v>317.6307663651991</v>
@@ -3205,7 +3205,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I34" t="n">
-        <v>54.52629139453013</v>
+        <v>54.52629139453012</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.04747230221579</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S34" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T34" t="n">
-        <v>186.4872700401421</v>
+        <v>186.487270040142</v>
       </c>
       <c r="U34" t="n">
         <v>254.5831063612652</v>
@@ -3253,7 +3253,7 @@
         <v>194.0994530368232</v>
       </c>
       <c r="Y34" t="n">
-        <v>186.9744509998809</v>
+        <v>186.9744509998808</v>
       </c>
     </row>
     <row r="35">
@@ -3263,16 +3263,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>351.1236393112666</v>
+        <v>351.1236393112663</v>
       </c>
       <c r="C35" t="n">
-        <v>333.6626894187933</v>
+        <v>333.6626894187937</v>
       </c>
       <c r="D35" t="n">
-        <v>323.072839268469</v>
+        <v>323.0728392684691</v>
       </c>
       <c r="E35" t="n">
-        <v>350.3201677200478</v>
+        <v>350.3201677200479</v>
       </c>
       <c r="F35" t="n">
         <v>375.2658433894975</v>
@@ -3281,7 +3281,7 @@
         <v>378.5542040247498</v>
       </c>
       <c r="H35" t="n">
-        <v>255.2416659947559</v>
+        <v>255.241665994756</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>60.32014642295175</v>
+        <v>60.32014642295181</v>
       </c>
       <c r="T35" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U35" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V35" t="n">
         <v>296.142056117921</v>
@@ -3332,7 +3332,7 @@
         <v>338.1208983262551</v>
       </c>
       <c r="Y35" t="n">
-        <v>354.6277363038396</v>
+        <v>354.6277363038397</v>
       </c>
     </row>
     <row r="36">
@@ -3421,16 +3421,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C37" t="n">
         <v>135.6366187464139</v>
       </c>
       <c r="D37" t="n">
-        <v>117.0052706659994</v>
+        <v>117.0052706659984</v>
       </c>
       <c r="E37" t="n">
-        <v>114.8237602943552</v>
+        <v>114.8237602943553</v>
       </c>
       <c r="F37" t="n">
         <v>113.8108456707173</v>
@@ -3442,7 +3442,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I37" t="n">
-        <v>54.52629139453009</v>
+        <v>54.52629139453015</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.04747230221575</v>
+        <v>42.04747230221582</v>
       </c>
       <c r="S37" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T37" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U37" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V37" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W37" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X37" t="n">
         <v>194.0994530368232</v>
       </c>
       <c r="Y37" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
     <row r="38">
@@ -3515,7 +3515,7 @@
         <v>375.2658433894975</v>
       </c>
       <c r="G38" t="n">
-        <v>378.5542040247496</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H38" t="n">
         <v>255.2416659947559</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>60.32014642295175</v>
+        <v>60.32014642295179</v>
       </c>
       <c r="T38" t="n">
-        <v>168.9926026545723</v>
+        <v>168.9926026545724</v>
       </c>
       <c r="U38" t="n">
         <v>219.3243840645688</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>148.2217778297233</v>
+        <v>148.2217778297234</v>
       </c>
       <c r="C40" t="n">
         <v>135.6366187464139</v>
@@ -3679,7 +3679,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I40" t="n">
-        <v>54.52629139453009</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.04747230221575</v>
+        <v>42.04747230221579</v>
       </c>
       <c r="S40" t="n">
         <v>152.2386502424833</v>
@@ -3715,13 +3715,13 @@
         <v>186.487270040142</v>
       </c>
       <c r="U40" t="n">
-        <v>254.5831063612651</v>
+        <v>254.5831063612652</v>
       </c>
       <c r="V40" t="n">
-        <v>220.527440971614</v>
+        <v>220.5274409716141</v>
       </c>
       <c r="W40" t="n">
-        <v>254.912795984377</v>
+        <v>254.9127959843771</v>
       </c>
       <c r="X40" t="n">
         <v>194.0994530368232</v>
@@ -3752,7 +3752,7 @@
         <v>375.2658433894975</v>
       </c>
       <c r="G41" t="n">
-        <v>378.5542040247478</v>
+        <v>378.5542040247498</v>
       </c>
       <c r="H41" t="n">
         <v>255.2416659947559</v>
@@ -3803,7 +3803,7 @@
         <v>317.6307663651991</v>
       </c>
       <c r="X41" t="n">
-        <v>338.1208983262551</v>
+        <v>338.1208983262546</v>
       </c>
       <c r="Y41" t="n">
         <v>354.6277363038396</v>
@@ -3916,7 +3916,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I43" t="n">
-        <v>54.52629139453011</v>
+        <v>54.52629139453012</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.04747230221577</v>
+        <v>42.04747230221578</v>
       </c>
       <c r="S43" t="n">
         <v>152.2386502424833</v>
@@ -3977,7 +3977,7 @@
         <v>351.1236393112666</v>
       </c>
       <c r="C44" t="n">
-        <v>333.6626894187936</v>
+        <v>333.6626894187933</v>
       </c>
       <c r="D44" t="n">
         <v>323.072839268469</v>
@@ -3995,7 +3995,7 @@
         <v>255.2416659947559</v>
       </c>
       <c r="I44" t="n">
-        <v>-1.927418225022848e-12</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>60.32014642295178</v>
+        <v>60.32014642295181</v>
       </c>
       <c r="T44" t="n">
         <v>168.9926026545724</v>
       </c>
       <c r="U44" t="n">
-        <v>219.3243840645688</v>
+        <v>219.3243840645689</v>
       </c>
       <c r="V44" t="n">
         <v>296.142056117921</v>
@@ -4153,7 +4153,7 @@
         <v>110.1245053442997</v>
       </c>
       <c r="I46" t="n">
-        <v>54.52629139453012</v>
+        <v>54.52629139453013</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.04747230221578</v>
+        <v>42.04747230221581</v>
       </c>
       <c r="S46" t="n">
         <v>152.2386502424833</v>
       </c>
       <c r="T46" t="n">
-        <v>186.487270040142</v>
+        <v>186.4872700401421</v>
       </c>
       <c r="U46" t="n">
         <v>254.5831063612652</v>
@@ -4201,7 +4201,7 @@
         <v>194.0994530368232</v>
       </c>
       <c r="Y46" t="n">
-        <v>186.9744509998808</v>
+        <v>186.9744509998809</v>
       </c>
     </row>
   </sheetData>
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>72.60093376251717</v>
+        <v>79.54643451172446</v>
       </c>
       <c r="C5" t="n">
-        <v>72.60093376251717</v>
+        <v>51.50753128881911</v>
       </c>
       <c r="D5" t="n">
-        <v>72.60093376251717</v>
+        <v>51.50753128881911</v>
       </c>
       <c r="E5" t="n">
-        <v>72.60093376251717</v>
+        <v>51.50753128881911</v>
       </c>
       <c r="F5" t="n">
-        <v>44.56203053961367</v>
+        <v>44.56203053961563</v>
       </c>
       <c r="G5" t="n">
-        <v>30.25958435815747</v>
+        <v>30.25958435815945</v>
       </c>
       <c r="H5" t="n">
-        <v>30.25958435815747</v>
+        <v>30.25958435815945</v>
       </c>
       <c r="I5" t="n">
-        <v>2.220681135253958</v>
+        <v>2.220681135254103</v>
       </c>
       <c r="J5" t="n">
-        <v>2.220681135253958</v>
+        <v>2.220681135254103</v>
       </c>
       <c r="K5" t="n">
-        <v>2.220681135253958</v>
+        <v>29.70161018402364</v>
       </c>
       <c r="L5" t="n">
-        <v>2.220681135253958</v>
+        <v>29.70161018402364</v>
       </c>
       <c r="M5" t="n">
-        <v>28.5912696163947</v>
+        <v>29.70161018402364</v>
       </c>
       <c r="N5" t="n">
-        <v>56.07219866516243</v>
+        <v>57.18253923279317</v>
       </c>
       <c r="O5" t="n">
-        <v>83.55312771393017</v>
+        <v>84.6634682815627</v>
       </c>
       <c r="P5" t="n">
-        <v>111.0340567626979</v>
+        <v>111.0340567627052</v>
       </c>
       <c r="Q5" t="n">
-        <v>111.0340567626979</v>
+        <v>111.0340567627052</v>
       </c>
       <c r="R5" t="n">
-        <v>82.99515353979439</v>
+        <v>111.0340567627052</v>
       </c>
       <c r="S5" t="n">
-        <v>82.99515353979439</v>
+        <v>82.99515353979983</v>
       </c>
       <c r="T5" t="n">
-        <v>82.99515353979439</v>
+        <v>82.99515353979983</v>
       </c>
       <c r="U5" t="n">
-        <v>82.99515353979439</v>
+        <v>82.99515353979983</v>
       </c>
       <c r="V5" t="n">
-        <v>82.99515353979439</v>
+        <v>82.99515353979983</v>
       </c>
       <c r="W5" t="n">
-        <v>82.99515353979439</v>
+        <v>82.99515353979983</v>
       </c>
       <c r="X5" t="n">
-        <v>72.60093376251717</v>
+        <v>79.54643451172446</v>
       </c>
       <c r="Y5" t="n">
-        <v>72.60093376251717</v>
+        <v>79.54643451172446</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>58.29848758106098</v>
+        <v>58.2984875810648</v>
       </c>
       <c r="C6" t="n">
-        <v>58.29848758106098</v>
+        <v>30.25958435815945</v>
       </c>
       <c r="D6" t="n">
-        <v>58.29848758106098</v>
+        <v>30.25958435815945</v>
       </c>
       <c r="E6" t="n">
-        <v>58.29848758106098</v>
+        <v>30.25958435815945</v>
       </c>
       <c r="F6" t="n">
-        <v>58.29848758106098</v>
+        <v>30.25958435815945</v>
       </c>
       <c r="G6" t="n">
-        <v>58.29848758106098</v>
+        <v>30.25958435815945</v>
       </c>
       <c r="H6" t="n">
-        <v>30.25958435815747</v>
+        <v>30.25958435815945</v>
       </c>
       <c r="I6" t="n">
-        <v>2.220681135253958</v>
+        <v>2.220681135254103</v>
       </c>
       <c r="J6" t="n">
-        <v>29.70161018402169</v>
+        <v>2.220681135254103</v>
       </c>
       <c r="K6" t="n">
-        <v>29.70161018402169</v>
+        <v>29.70161018402364</v>
       </c>
       <c r="L6" t="n">
-        <v>29.70161018402169</v>
+        <v>43.33697793016737</v>
       </c>
       <c r="M6" t="n">
-        <v>56.07219866516243</v>
+        <v>56.07219866516612</v>
       </c>
       <c r="N6" t="n">
-        <v>83.55312771393017</v>
+        <v>83.55312771393565</v>
       </c>
       <c r="O6" t="n">
-        <v>111.0340567626979</v>
+        <v>111.0340567627052</v>
       </c>
       <c r="P6" t="n">
-        <v>111.0340567626979</v>
+        <v>111.0340567627052</v>
       </c>
       <c r="Q6" t="n">
-        <v>111.0340567626979</v>
+        <v>111.0340567627052</v>
       </c>
       <c r="R6" t="n">
-        <v>82.99515353979439</v>
+        <v>111.0340567627052</v>
       </c>
       <c r="S6" t="n">
-        <v>58.29848758106098</v>
+        <v>111.0340567627052</v>
       </c>
       <c r="T6" t="n">
-        <v>58.29848758106098</v>
+        <v>111.0340567627052</v>
       </c>
       <c r="U6" t="n">
-        <v>58.29848758106098</v>
+        <v>82.99515353979983</v>
       </c>
       <c r="V6" t="n">
-        <v>58.29848758106098</v>
+        <v>82.99515353979983</v>
       </c>
       <c r="W6" t="n">
-        <v>58.29848758106098</v>
+        <v>82.99515353979983</v>
       </c>
       <c r="X6" t="n">
-        <v>58.29848758106098</v>
+        <v>82.99515353979983</v>
       </c>
       <c r="Y6" t="n">
-        <v>58.29848758106098</v>
+        <v>58.2984875810648</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>58.29848758106098</v>
+        <v>30.25958435815945</v>
       </c>
       <c r="C7" t="n">
-        <v>30.25958435815747</v>
+        <v>30.25958435815945</v>
       </c>
       <c r="D7" t="n">
-        <v>2.220681135253958</v>
+        <v>30.25958435815945</v>
       </c>
       <c r="E7" t="n">
-        <v>2.220681135253958</v>
+        <v>30.25958435815945</v>
       </c>
       <c r="F7" t="n">
-        <v>2.220681135253958</v>
+        <v>2.220681135254103</v>
       </c>
       <c r="G7" t="n">
-        <v>2.220681135253958</v>
+        <v>2.220681135254103</v>
       </c>
       <c r="H7" t="n">
-        <v>2.220681135253958</v>
+        <v>2.220681135254103</v>
       </c>
       <c r="I7" t="n">
-        <v>2.220681135253958</v>
+        <v>2.220681135254103</v>
       </c>
       <c r="J7" t="n">
-        <v>2.220681135253958</v>
+        <v>2.220681135254103</v>
       </c>
       <c r="K7" t="n">
-        <v>29.70161018402169</v>
+        <v>29.70161018402364</v>
       </c>
       <c r="L7" t="n">
-        <v>29.70161018402169</v>
+        <v>56.07219866516612</v>
       </c>
       <c r="M7" t="n">
-        <v>29.70161018402169</v>
+        <v>56.07219866516612</v>
       </c>
       <c r="N7" t="n">
-        <v>57.18253923278942</v>
+        <v>83.55312771393565</v>
       </c>
       <c r="O7" t="n">
-        <v>84.66346828155716</v>
+        <v>111.0340567627052</v>
       </c>
       <c r="P7" t="n">
-        <v>111.0340567626979</v>
+        <v>111.0340567627052</v>
       </c>
       <c r="Q7" t="n">
-        <v>82.99515353979439</v>
+        <v>111.0340567627052</v>
       </c>
       <c r="R7" t="n">
-        <v>82.99515353979439</v>
+        <v>86.33739080397015</v>
       </c>
       <c r="S7" t="n">
-        <v>82.99515353979439</v>
+        <v>58.2984875810648</v>
       </c>
       <c r="T7" t="n">
-        <v>82.99515353979439</v>
+        <v>30.25958435815945</v>
       </c>
       <c r="U7" t="n">
-        <v>82.99515353979439</v>
+        <v>30.25958435815945</v>
       </c>
       <c r="V7" t="n">
-        <v>82.99515353979439</v>
+        <v>30.25958435815945</v>
       </c>
       <c r="W7" t="n">
-        <v>82.99515353979439</v>
+        <v>30.25958435815945</v>
       </c>
       <c r="X7" t="n">
-        <v>82.99515353979439</v>
+        <v>30.25958435815945</v>
       </c>
       <c r="Y7" t="n">
-        <v>82.99515353979439</v>
+        <v>30.25958435815945</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4778,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>281.4077649716774</v>
+        <v>318.5562537668786</v>
       </c>
       <c r="C8" t="n">
-        <v>39.17751432369236</v>
+        <v>318.5562537668786</v>
       </c>
       <c r="D8" t="n">
-        <v>39.17751432369236</v>
+        <v>76.32600311889368</v>
       </c>
       <c r="E8" t="n">
         <v>39.17751432369236</v>
@@ -4802,52 +4802,52 @@
         <v>19.18463585132041</v>
       </c>
       <c r="J8" t="n">
-        <v>40.41888584470348</v>
+        <v>40.41888584470377</v>
       </c>
       <c r="K8" t="n">
-        <v>122.9820404192958</v>
+        <v>122.9820404192961</v>
       </c>
       <c r="L8" t="n">
-        <v>262.310696260549</v>
+        <v>262.3106962605494</v>
       </c>
       <c r="M8" t="n">
-        <v>449.0101090859566</v>
+        <v>449.010109085957</v>
       </c>
       <c r="N8" t="n">
-        <v>643.3443219779389</v>
+        <v>643.3443219779394</v>
       </c>
       <c r="O8" t="n">
-        <v>813.5133472948985</v>
+        <v>813.5133472948989</v>
       </c>
       <c r="P8" t="n">
-        <v>924.2476725444254</v>
+        <v>924.2476725444252</v>
       </c>
       <c r="Q8" t="n">
-        <v>959.2317925660205</v>
+        <v>959.2317925660203</v>
       </c>
       <c r="R8" t="n">
-        <v>959.2317925660205</v>
+        <v>959.2317925660203</v>
       </c>
       <c r="S8" t="n">
-        <v>959.2317925660205</v>
+        <v>803.0167550628485</v>
       </c>
       <c r="T8" t="n">
-        <v>959.2317925660205</v>
+        <v>803.0167550628485</v>
       </c>
       <c r="U8" t="n">
-        <v>717.0015419180355</v>
+        <v>803.0167550628485</v>
       </c>
       <c r="V8" t="n">
-        <v>474.7712912700505</v>
+        <v>803.0167550628485</v>
       </c>
       <c r="W8" t="n">
-        <v>474.7712912700505</v>
+        <v>803.0167550628485</v>
       </c>
       <c r="X8" t="n">
-        <v>281.4077649716774</v>
+        <v>560.7865044148635</v>
       </c>
       <c r="Y8" t="n">
-        <v>281.4077649716774</v>
+        <v>560.7865044148635</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>65.08949286100392</v>
+        <v>305.5604431533498</v>
       </c>
       <c r="C9" t="n">
-        <v>65.08949286100392</v>
+        <v>305.5604431533498</v>
       </c>
       <c r="D9" t="n">
-        <v>65.08949286100392</v>
+        <v>156.6260334920985</v>
       </c>
       <c r="E9" t="n">
-        <v>65.08949286100392</v>
+        <v>156.6260334920985</v>
       </c>
       <c r="F9" t="n">
-        <v>65.08949286100392</v>
+        <v>156.6260334920985</v>
       </c>
       <c r="G9" t="n">
-        <v>65.08949286100392</v>
+        <v>19.18463585132041</v>
       </c>
       <c r="H9" t="n">
-        <v>65.08949286100392</v>
+        <v>19.18463585132041</v>
       </c>
       <c r="I9" t="n">
         <v>19.18463585132041</v>
       </c>
       <c r="J9" t="n">
-        <v>85.30141548166362</v>
+        <v>19.18463585132041</v>
       </c>
       <c r="K9" t="n">
-        <v>152.9092351450207</v>
+        <v>94.99670283953526</v>
       </c>
       <c r="L9" t="n">
-        <v>290.1388331607146</v>
+        <v>232.2263008552292</v>
       </c>
       <c r="M9" t="n">
-        <v>469.6361695153195</v>
+        <v>469.6361695153192</v>
       </c>
       <c r="N9" t="n">
-        <v>668.2929111679841</v>
+        <v>668.2929111679839</v>
       </c>
       <c r="O9" t="n">
-        <v>827.8052238367447</v>
+        <v>827.8052238367445</v>
       </c>
       <c r="P9" t="n">
-        <v>936.4948513640436</v>
+        <v>936.4948513640434</v>
       </c>
       <c r="Q9" t="n">
-        <v>959.2317925660205</v>
+        <v>959.2317925660203</v>
       </c>
       <c r="R9" t="n">
-        <v>938.1198929682073</v>
+        <v>959.2317925660203</v>
       </c>
       <c r="S9" t="n">
-        <v>938.1198929682073</v>
+        <v>959.2317925660203</v>
       </c>
       <c r="T9" t="n">
-        <v>938.1198929682073</v>
+        <v>959.2317925660203</v>
       </c>
       <c r="U9" t="n">
-        <v>938.1198929682073</v>
+        <v>959.2317925660203</v>
       </c>
       <c r="V9" t="n">
-        <v>702.9677847364646</v>
+        <v>724.0796843342775</v>
       </c>
       <c r="W9" t="n">
-        <v>648.9166288515587</v>
+        <v>513.3207419183036</v>
       </c>
       <c r="X9" t="n">
-        <v>441.0651286460259</v>
+        <v>513.3207419183036</v>
       </c>
       <c r="Y9" t="n">
-        <v>233.304829881072</v>
+        <v>305.5604431533498</v>
       </c>
     </row>
     <row r="10">
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>205.6660686152997</v>
+        <v>486.1169077912214</v>
       </c>
       <c r="C10" t="n">
-        <v>205.6660686152997</v>
+        <v>486.1169077912214</v>
       </c>
       <c r="D10" t="n">
-        <v>205.6660686152997</v>
+        <v>486.1169077912214</v>
       </c>
       <c r="E10" t="n">
-        <v>205.6660686152997</v>
+        <v>338.2038142088282</v>
       </c>
       <c r="F10" t="n">
-        <v>205.6660686152997</v>
+        <v>191.3138667109179</v>
       </c>
       <c r="G10" t="n">
-        <v>37.05922361068302</v>
+        <v>191.3138667109179</v>
       </c>
       <c r="H10" t="n">
         <v>37.05922361068302</v>
@@ -4969,43 +4969,43 @@
         <v>305.0655603477486</v>
       </c>
       <c r="M10" t="n">
-        <v>453.8659557427017</v>
+        <v>510.3351610669865</v>
       </c>
       <c r="N10" t="n">
-        <v>659.689320578806</v>
+        <v>716.1585259030908</v>
       </c>
       <c r="O10" t="n">
-        <v>833.7842159674049</v>
+        <v>830.3658965470447</v>
       </c>
       <c r="P10" t="n">
-        <v>959.2317925660205</v>
+        <v>955.8134731456604</v>
       </c>
       <c r="Q10" t="n">
-        <v>959.2317925660205</v>
+        <v>959.2317925660203</v>
       </c>
       <c r="R10" t="n">
-        <v>959.2317925660205</v>
+        <v>959.2317925660203</v>
       </c>
       <c r="S10" t="n">
-        <v>959.2317925660205</v>
+        <v>959.2317925660203</v>
       </c>
       <c r="T10" t="n">
-        <v>959.2317925660205</v>
+        <v>733.6025958783853</v>
       </c>
       <c r="U10" t="n">
-        <v>918.1161208092871</v>
+        <v>491.3723452304004</v>
       </c>
       <c r="V10" t="n">
-        <v>675.885870161302</v>
+        <v>491.3723452304004</v>
       </c>
       <c r="W10" t="n">
-        <v>433.655619513317</v>
+        <v>491.3723452304004</v>
       </c>
       <c r="X10" t="n">
-        <v>205.6660686152997</v>
+        <v>491.3723452304004</v>
       </c>
       <c r="Y10" t="n">
-        <v>205.6660686152997</v>
+        <v>491.3723452304004</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1866.026662509059</v>
+        <v>2325.545057758603</v>
       </c>
       <c r="C11" t="n">
-        <v>1497.064145568648</v>
+        <v>1956.582540818192</v>
       </c>
       <c r="D11" t="n">
-        <v>1138.798446961897</v>
+        <v>1598.316842211441</v>
       </c>
       <c r="E11" t="n">
-        <v>1138.798446961897</v>
+        <v>1212.528589613197</v>
       </c>
       <c r="F11" t="n">
-        <v>727.8125421722896</v>
+        <v>801.5426848235895</v>
       </c>
       <c r="G11" t="n">
-        <v>313.5050609834373</v>
+        <v>387.2352036347373</v>
       </c>
       <c r="H11" t="n">
         <v>97.48584166810105</v>
@@ -5039,10 +5039,10 @@
         <v>84.98040897511625</v>
       </c>
       <c r="J11" t="n">
-        <v>337.4933016076843</v>
+        <v>337.4933016076834</v>
       </c>
       <c r="K11" t="n">
-        <v>766.6831886951454</v>
+        <v>766.683188695145</v>
       </c>
       <c r="L11" t="n">
         <v>1336.032957050963</v>
@@ -5072,19 +5072,19 @@
         <v>3953.532414632629</v>
       </c>
       <c r="U11" t="n">
-        <v>3700.063135423758</v>
+        <v>3953.532414632629</v>
       </c>
       <c r="V11" t="n">
-        <v>3369.000248080187</v>
+        <v>3622.469527289058</v>
       </c>
       <c r="W11" t="n">
-        <v>3016.231592810072</v>
+        <v>3269.700872018944</v>
       </c>
       <c r="X11" t="n">
-        <v>2642.765834548993</v>
+        <v>2896.235113757864</v>
       </c>
       <c r="Y11" t="n">
-        <v>2252.626502573181</v>
+        <v>2506.095781782052</v>
       </c>
     </row>
     <row r="12">
@@ -5124,19 +5124,19 @@
         <v>519.5985603334505</v>
       </c>
       <c r="L12" t="n">
-        <v>973.3971899277778</v>
+        <v>519.5985603334505</v>
       </c>
       <c r="M12" t="n">
-        <v>1522.315654538067</v>
+        <v>1068.51702494374</v>
       </c>
       <c r="N12" t="n">
-        <v>1934.929714729833</v>
+        <v>1646.372372870142</v>
       </c>
       <c r="O12" t="n">
-        <v>1934.929714729833</v>
+        <v>2152.777327818392</v>
       </c>
       <c r="P12" t="n">
-        <v>2322.031270281988</v>
+        <v>2530.879212293268</v>
       </c>
       <c r="Q12" t="n">
         <v>2530.879212293268</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1096.368901028491</v>
+        <v>591.1942975918292</v>
       </c>
       <c r="C13" t="n">
-        <v>927.4327181005837</v>
+        <v>591.1942975918292</v>
       </c>
       <c r="D13" t="n">
-        <v>777.3160786882479</v>
+        <v>441.0776581794935</v>
       </c>
       <c r="E13" t="n">
-        <v>629.4029851058548</v>
+        <v>293.1645645971004</v>
       </c>
       <c r="F13" t="n">
-        <v>482.5130376079444</v>
+        <v>293.1645645971004</v>
       </c>
       <c r="G13" t="n">
-        <v>315.1533397258817</v>
+        <v>293.1645645971004</v>
       </c>
       <c r="H13" t="n">
         <v>171.9869683152618</v>
@@ -5224,25 +5224,25 @@
         <v>2279.168624967671</v>
       </c>
       <c r="S13" t="n">
-        <v>2279.168624967671</v>
+        <v>2093.462713255856</v>
       </c>
       <c r="T13" t="n">
-        <v>2279.168624967671</v>
+        <v>1873.16223609186</v>
       </c>
       <c r="U13" t="n">
-        <v>2270.901154143125</v>
+        <v>1584.078085876224</v>
       </c>
       <c r="V13" t="n">
-        <v>2016.216665937238</v>
+        <v>1329.393597670337</v>
       </c>
       <c r="W13" t="n">
-        <v>1726.799495900278</v>
+        <v>1039.976427633377</v>
       </c>
       <c r="X13" t="n">
-        <v>1498.80994500226</v>
+        <v>811.9868767353594</v>
       </c>
       <c r="Y13" t="n">
-        <v>1278.01736585873</v>
+        <v>591.1942975918292</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1958.885600665792</v>
+        <v>2325.545057758603</v>
       </c>
       <c r="C14" t="n">
-        <v>1589.923083725381</v>
+        <v>1956.582540818192</v>
       </c>
       <c r="D14" t="n">
-        <v>1231.65738511863</v>
+        <v>1598.316842211441</v>
       </c>
       <c r="E14" t="n">
-        <v>845.8691325203861</v>
+        <v>1212.528589613197</v>
       </c>
       <c r="F14" t="n">
-        <v>434.8832277307786</v>
+        <v>801.5426848235895</v>
       </c>
       <c r="G14" t="n">
-        <v>84.98040897511625</v>
+        <v>387.2352036347373</v>
       </c>
       <c r="H14" t="n">
-        <v>84.98040897511625</v>
+        <v>97.48584166810105</v>
       </c>
       <c r="I14" t="n">
         <v>84.98040897511625</v>
       </c>
       <c r="J14" t="n">
-        <v>337.4933016076834</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K14" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L14" t="n">
         <v>1336.032957050963</v>
@@ -5291,7 +5291,7 @@
         <v>2681.771598889755</v>
       </c>
       <c r="O14" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P14" t="n">
         <v>3813.656640612704</v>
@@ -5315,10 +5315,10 @@
         <v>3461.859186236919</v>
       </c>
       <c r="W14" t="n">
-        <v>3109.090530966806</v>
+        <v>3109.090530966805</v>
       </c>
       <c r="X14" t="n">
-        <v>2735.624772705726</v>
+        <v>2735.624772705725</v>
       </c>
       <c r="Y14" t="n">
         <v>2345.485440729914</v>
@@ -5358,19 +5358,19 @@
         <v>216.557510983586</v>
       </c>
       <c r="K15" t="n">
-        <v>519.5985603334505</v>
+        <v>235.0538732027192</v>
       </c>
       <c r="L15" t="n">
-        <v>973.3971899277778</v>
+        <v>688.8525027970467</v>
       </c>
       <c r="M15" t="n">
-        <v>973.3971899277778</v>
+        <v>1237.770967407336</v>
       </c>
       <c r="N15" t="n">
-        <v>1428.524759781582</v>
+        <v>1815.626315333738</v>
       </c>
       <c r="O15" t="n">
-        <v>1934.929714729833</v>
+        <v>2322.031270281988</v>
       </c>
       <c r="P15" t="n">
         <v>2322.031270281988</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>516.7926060217005</v>
+        <v>927.4327181005837</v>
       </c>
       <c r="C16" t="n">
-        <v>516.7926060217005</v>
+        <v>927.4327181005837</v>
       </c>
       <c r="D16" t="n">
-        <v>516.7926060217005</v>
+        <v>777.3160786882479</v>
       </c>
       <c r="E16" t="n">
-        <v>516.7926060217005</v>
+        <v>629.4029851058548</v>
       </c>
       <c r="F16" t="n">
-        <v>369.9026585237903</v>
+        <v>482.5130376079444</v>
       </c>
       <c r="G16" t="n">
-        <v>315.1533397258813</v>
+        <v>315.1533397258817</v>
       </c>
       <c r="H16" t="n">
-        <v>171.9869683152616</v>
+        <v>171.9869683152618</v>
       </c>
       <c r="I16" t="n">
         <v>84.98040897511625</v>
       </c>
       <c r="J16" t="n">
-        <v>153.8801783755869</v>
+        <v>153.8801783755867</v>
       </c>
       <c r="K16" t="n">
-        <v>396.940501386978</v>
+        <v>396.9405013869778</v>
       </c>
       <c r="L16" t="n">
-        <v>763.5004667042039</v>
+        <v>763.5004667042035</v>
       </c>
       <c r="M16" t="n">
-        <v>1160.375677726127</v>
+        <v>1160.375677726126</v>
       </c>
       <c r="N16" t="n">
         <v>1553.248699711515</v>
       </c>
       <c r="O16" t="n">
-        <v>1900.114228341786</v>
+        <v>1900.114228341785</v>
       </c>
       <c r="P16" t="n">
-        <v>2173.396928727847</v>
+        <v>2173.396928727846</v>
       </c>
       <c r="Q16" t="n">
-        <v>2279.168624967672</v>
+        <v>2279.168624967671</v>
       </c>
       <c r="R16" t="n">
-        <v>2204.766933397541</v>
+        <v>2279.168624967671</v>
       </c>
       <c r="S16" t="n">
-        <v>2019.061021685726</v>
+        <v>2093.462713255856</v>
       </c>
       <c r="T16" t="n">
-        <v>1798.76054452173</v>
+        <v>1873.16223609186</v>
       </c>
       <c r="U16" t="n">
-        <v>1509.676394306095</v>
+        <v>1584.078085876224</v>
       </c>
       <c r="V16" t="n">
-        <v>1254.991906100208</v>
+        <v>1584.078085876224</v>
       </c>
       <c r="W16" t="n">
-        <v>965.5747360632477</v>
+        <v>1294.660915839264</v>
       </c>
       <c r="X16" t="n">
-        <v>737.5851851652304</v>
+        <v>1066.671364941246</v>
       </c>
       <c r="Y16" t="n">
-        <v>516.7926060217005</v>
+        <v>927.4327181005837</v>
       </c>
     </row>
     <row r="17">
@@ -5507,40 +5507,40 @@
         <v>342.8002736162839</v>
       </c>
       <c r="H17" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="I17" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J17" t="n">
-        <v>337.4933016076836</v>
+        <v>337.4933016076837</v>
       </c>
       <c r="K17" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951452</v>
       </c>
       <c r="L17" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M17" t="n">
         <v>2001.213713746739</v>
       </c>
       <c r="N17" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O17" t="n">
         <v>3311.067850233288</v>
       </c>
       <c r="P17" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612705</v>
       </c>
       <c r="Q17" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R17" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755812</v>
       </c>
       <c r="S17" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924548</v>
       </c>
       <c r="T17" t="n">
         <v>4017.391409283565</v>
@@ -5589,31 +5589,31 @@
         <v>89.89576342177176</v>
       </c>
       <c r="I18" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J18" t="n">
-        <v>216.5575109835859</v>
+        <v>122.7666162271011</v>
       </c>
       <c r="K18" t="n">
-        <v>519.5985603334505</v>
+        <v>425.8076655769656</v>
       </c>
       <c r="L18" t="n">
-        <v>973.3971899277778</v>
+        <v>879.606295171293</v>
       </c>
       <c r="M18" t="n">
-        <v>1522.315654538067</v>
+        <v>1428.524759781582</v>
       </c>
       <c r="N18" t="n">
-        <v>1840.391293364258</v>
+        <v>1428.524759781582</v>
       </c>
       <c r="O18" t="n">
-        <v>2346.796248312508</v>
+        <v>1934.929714729833</v>
       </c>
       <c r="P18" t="n">
-        <v>2346.796248312508</v>
+        <v>2322.031270281988</v>
       </c>
       <c r="Q18" t="n">
-        <v>2555.644190323788</v>
+        <v>2530.879212293268</v>
       </c>
       <c r="R18" t="n">
         <v>2555.644190323788</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>872.8624197502102</v>
+        <v>872.8624197502106</v>
       </c>
       <c r="C19" t="n">
-        <v>735.8557341477718</v>
+        <v>735.8557341477723</v>
       </c>
       <c r="D19" t="n">
-        <v>617.6685920609048</v>
+        <v>617.6685920609052</v>
       </c>
       <c r="E19" t="n">
-        <v>501.6849958039803</v>
+        <v>501.6849958039807</v>
       </c>
       <c r="F19" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315389</v>
       </c>
       <c r="G19" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749443</v>
       </c>
       <c r="H19" t="n">
-        <v>140.0574709897931</v>
+        <v>140.057470989793</v>
       </c>
       <c r="I19" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J19" t="n">
         <v>185.1742787042785</v>
@@ -5677,13 +5677,13 @@
         <v>459.5287020443612</v>
       </c>
       <c r="L19" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902791</v>
       </c>
       <c r="M19" t="n">
         <v>1285.552079040894</v>
       </c>
       <c r="N19" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354974</v>
       </c>
       <c r="O19" t="n">
         <v>2087.878830313936</v>
@@ -5692,13 +5692,13 @@
         <v>2392.455631028689</v>
       </c>
       <c r="Q19" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597206</v>
       </c>
       <c r="R19" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352544</v>
       </c>
       <c r="S19" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966197</v>
       </c>
       <c r="T19" t="n">
         <v>2144.901839127669</v>
@@ -5707,16 +5707,16 @@
         <v>1887.747186237502</v>
       </c>
       <c r="V19" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W19" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X19" t="n">
         <v>1211.444469073043</v>
       </c>
       <c r="Y19" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.581387254982</v>
       </c>
     </row>
     <row r="20">
@@ -5729,73 +5729,73 @@
         <v>2121.462641112807</v>
       </c>
       <c r="C20" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D20" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.093420216583</v>
       </c>
       <c r="E20" t="n">
-        <v>1104.234664943806</v>
+        <v>1104.234664943807</v>
       </c>
       <c r="F20" t="n">
-        <v>725.1782574796671</v>
+        <v>725.1782574796681</v>
       </c>
       <c r="G20" t="n">
         <v>342.8002736162839</v>
       </c>
       <c r="H20" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="I20" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J20" t="n">
         <v>337.4933016076836</v>
       </c>
       <c r="K20" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951448</v>
       </c>
       <c r="L20" t="n">
         <v>1336.032957050963</v>
       </c>
       <c r="M20" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.213713746738</v>
       </c>
       <c r="N20" t="n">
         <v>2681.771598889755</v>
       </c>
       <c r="O20" t="n">
-        <v>3311.067850233288</v>
+        <v>3311.067850233287</v>
       </c>
       <c r="P20" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q20" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767227</v>
       </c>
       <c r="R20" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755812</v>
       </c>
       <c r="S20" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924548</v>
       </c>
       <c r="T20" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283566</v>
       </c>
       <c r="U20" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.851627400163</v>
       </c>
       <c r="V20" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W20" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437415</v>
       </c>
       <c r="X20" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y20" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851461</v>
       </c>
     </row>
     <row r="21">
@@ -5823,34 +5823,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H21" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177182</v>
       </c>
       <c r="I21" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J21" t="n">
         <v>216.5575109835859</v>
       </c>
       <c r="K21" t="n">
-        <v>216.5575109835859</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L21" t="n">
-        <v>670.3561405779134</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="M21" t="n">
-        <v>875.4343898857001</v>
+        <v>1068.517024943739</v>
       </c>
       <c r="N21" t="n">
-        <v>1453.289737812102</v>
+        <v>1646.372372870142</v>
       </c>
       <c r="O21" t="n">
-        <v>1959.694692760353</v>
+        <v>1934.929714729833</v>
       </c>
       <c r="P21" t="n">
-        <v>2346.796248312508</v>
+        <v>2322.031270281989</v>
       </c>
       <c r="Q21" t="n">
-        <v>2555.644190323788</v>
+        <v>2530.879212293269</v>
       </c>
       <c r="R21" t="n">
         <v>2555.644190323788</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>872.8624197502102</v>
+        <v>872.862419750209</v>
       </c>
       <c r="C22" t="n">
-        <v>735.8557341477718</v>
+        <v>735.8557341477707</v>
       </c>
       <c r="D22" t="n">
-        <v>617.6685920609048</v>
+        <v>617.6685920609036</v>
       </c>
       <c r="E22" t="n">
-        <v>501.6849958039803</v>
+        <v>501.6849958039791</v>
       </c>
       <c r="F22" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315374</v>
       </c>
       <c r="G22" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749432</v>
       </c>
       <c r="H22" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897919</v>
       </c>
       <c r="I22" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J22" t="n">
         <v>185.1742787042785</v>
       </c>
       <c r="K22" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L22" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M22" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N22" t="n">
         <v>1709.719201354973</v>
       </c>
       <c r="O22" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P22" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q22" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R22" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S22" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T22" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127667</v>
       </c>
       <c r="U22" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V22" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357082</v>
       </c>
       <c r="W22" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.50452264559</v>
       </c>
       <c r="X22" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y22" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.58138725498</v>
       </c>
     </row>
     <row r="23">
@@ -5975,31 +5975,31 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F23" t="n">
-        <v>725.1782574796672</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G23" t="n">
-        <v>342.8002736162835</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H23" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="I23" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J23" t="n">
-        <v>337.4933016076834</v>
+        <v>337.4933016076836</v>
       </c>
       <c r="K23" t="n">
-        <v>766.6831886951447</v>
+        <v>766.6831886951448</v>
       </c>
       <c r="L23" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M23" t="n">
-        <v>2001.213713746739</v>
+        <v>2001.21371374674</v>
       </c>
       <c r="N23" t="n">
-        <v>2681.771598889755</v>
+        <v>2681.771598889756</v>
       </c>
       <c r="O23" t="n">
         <v>3311.067850233288</v>
@@ -6008,25 +6008,25 @@
         <v>3813.656640612704</v>
       </c>
       <c r="Q23" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R23" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755812</v>
       </c>
       <c r="S23" t="n">
-        <v>4188.091007924547</v>
+        <v>4188.091007924548</v>
       </c>
       <c r="T23" t="n">
-        <v>4017.391409283565</v>
+        <v>4017.391409283566</v>
       </c>
       <c r="U23" t="n">
-        <v>3795.851627400162</v>
+        <v>3795.851627400163</v>
       </c>
       <c r="V23" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W23" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437415</v>
       </c>
       <c r="X23" t="n">
         <v>2834.342818501803</v>
@@ -6060,34 +6060,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H24" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177182</v>
       </c>
       <c r="I24" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J24" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="K24" t="n">
-        <v>84.98040897511622</v>
+        <v>388.0214583249806</v>
       </c>
       <c r="L24" t="n">
-        <v>326.515925275411</v>
+        <v>510.5988892561712</v>
       </c>
       <c r="M24" t="n">
-        <v>875.4343898857001</v>
+        <v>1059.51735386646</v>
       </c>
       <c r="N24" t="n">
-        <v>1453.289737812102</v>
+        <v>1637.372701792863</v>
       </c>
       <c r="O24" t="n">
-        <v>1959.694692760353</v>
+        <v>2143.777656741113</v>
       </c>
       <c r="P24" t="n">
-        <v>2346.796248312508</v>
+        <v>2530.879212293269</v>
       </c>
       <c r="Q24" t="n">
-        <v>2555.644190323788</v>
+        <v>2530.879212293269</v>
       </c>
       <c r="R24" t="n">
         <v>2555.644190323788</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>872.8624197502104</v>
+        <v>872.862419750209</v>
       </c>
       <c r="C25" t="n">
-        <v>735.8557341477721</v>
+        <v>735.8557341477707</v>
       </c>
       <c r="D25" t="n">
-        <v>617.668592060905</v>
+        <v>617.6685920609036</v>
       </c>
       <c r="E25" t="n">
-        <v>501.6849958039804</v>
+        <v>501.6849958039791</v>
       </c>
       <c r="F25" t="n">
-        <v>386.7245456315387</v>
+        <v>386.7245456315374</v>
       </c>
       <c r="G25" t="n">
-        <v>251.2943450749444</v>
+        <v>251.2943450749432</v>
       </c>
       <c r="H25" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I25" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J25" t="n">
         <v>185.1742787042785</v>
       </c>
       <c r="K25" t="n">
-        <v>459.5287020443613</v>
+        <v>459.5287020443611</v>
       </c>
       <c r="L25" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902786</v>
       </c>
       <c r="M25" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N25" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O25" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P25" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q25" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R25" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S25" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T25" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127667</v>
       </c>
       <c r="U25" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V25" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357082</v>
       </c>
       <c r="W25" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.50452264559</v>
       </c>
       <c r="X25" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y25" t="n">
-        <v>1022.581387254981</v>
+        <v>1022.58138725498</v>
       </c>
     </row>
     <row r="26">
@@ -6203,61 +6203,61 @@
         <v>2121.462641112807</v>
       </c>
       <c r="C26" t="n">
-        <v>1784.429621497865</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D26" t="n">
-        <v>1458.093420216583</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E26" t="n">
-        <v>1104.234664943808</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F26" t="n">
-        <v>725.1782574796687</v>
+        <v>725.1782574796673</v>
       </c>
       <c r="G26" t="n">
-        <v>342.8002736162837</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H26" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I26" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J26" t="n">
         <v>337.4933016076836</v>
       </c>
       <c r="K26" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L26" t="n">
         <v>1336.032957050963</v>
       </c>
       <c r="M26" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N26" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O26" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P26" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q26" t="n">
-        <v>4142.907144767227</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R26" t="n">
-        <v>4249.02044875581</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S26" t="n">
-        <v>4188.091007924546</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T26" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U26" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V26" t="n">
         <v>3496.71823738206</v>
@@ -6297,34 +6297,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H27" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I27" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J27" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="K27" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="L27" t="n">
-        <v>301.7509472448909</v>
+        <v>510.5988892561712</v>
       </c>
       <c r="M27" t="n">
-        <v>850.66941185518</v>
+        <v>1059.51735386646</v>
       </c>
       <c r="N27" t="n">
-        <v>1428.524759781582</v>
+        <v>1637.372701792863</v>
       </c>
       <c r="O27" t="n">
-        <v>1934.929714729833</v>
+        <v>2143.777656741113</v>
       </c>
       <c r="P27" t="n">
-        <v>2322.031270281988</v>
+        <v>2530.879212293269</v>
       </c>
       <c r="Q27" t="n">
-        <v>2530.879212293268</v>
+        <v>2530.879212293269</v>
       </c>
       <c r="R27" t="n">
         <v>2555.644190323788</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>872.8624197502127</v>
+        <v>872.8624197502093</v>
       </c>
       <c r="C28" t="n">
-        <v>735.8557341477745</v>
+        <v>735.8557341477709</v>
       </c>
       <c r="D28" t="n">
-        <v>617.6685920609041</v>
+        <v>617.6685920609038</v>
       </c>
       <c r="E28" t="n">
-        <v>501.6849958039797</v>
+        <v>501.6849958039794</v>
       </c>
       <c r="F28" t="n">
-        <v>386.7245456315381</v>
+        <v>386.7245456315377</v>
       </c>
       <c r="G28" t="n">
-        <v>251.2943450749441</v>
+        <v>251.2943450749435</v>
       </c>
       <c r="H28" t="n">
-        <v>140.057470989793</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I28" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J28" t="n">
-        <v>185.1742787042786</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K28" t="n">
-        <v>459.5287020443615</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L28" t="n">
-        <v>857.3827676902793</v>
+        <v>857.3827676902787</v>
       </c>
       <c r="M28" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N28" t="n">
-        <v>1709.719201354974</v>
+        <v>1709.719201354973</v>
       </c>
       <c r="O28" t="n">
-        <v>2087.878830313937</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P28" t="n">
-        <v>2392.45563102869</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q28" t="n">
-        <v>2529.521427597207</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R28" t="n">
-        <v>2487.049233352544</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S28" t="n">
-        <v>2333.272818966198</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T28" t="n">
-        <v>2144.90183912767</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U28" t="n">
-        <v>1887.747186237504</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V28" t="n">
-        <v>1664.992195357086</v>
+        <v>1664.992195357082</v>
       </c>
       <c r="W28" t="n">
-        <v>1407.504522645594</v>
+        <v>1407.50452264559</v>
       </c>
       <c r="X28" t="n">
-        <v>1211.444469073045</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y28" t="n">
-        <v>1022.581387254984</v>
+        <v>1022.58138725498</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2121.462641112806</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C29" t="n">
-        <v>1784.429621497863</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D29" t="n">
-        <v>1458.093420216581</v>
+        <v>1458.093420216583</v>
       </c>
       <c r="E29" t="n">
-        <v>1104.234664943805</v>
+        <v>1104.234664943807</v>
       </c>
       <c r="F29" t="n">
-        <v>725.1782574796666</v>
+        <v>725.1782574796681</v>
       </c>
       <c r="G29" t="n">
         <v>342.8002736162838</v>
       </c>
       <c r="H29" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="I29" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J29" t="n">
         <v>337.4933016076836</v>
       </c>
       <c r="K29" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951448</v>
       </c>
       <c r="L29" t="n">
         <v>1336.032957050963</v>
@@ -6479,34 +6479,34 @@
         <v>3311.067850233287</v>
       </c>
       <c r="P29" t="n">
-        <v>3813.656640612704</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q29" t="n">
-        <v>4142.907144767228</v>
+        <v>4142.907144767229</v>
       </c>
       <c r="R29" t="n">
-        <v>4249.020448755811</v>
+        <v>4249.020448755812</v>
       </c>
       <c r="S29" t="n">
-        <v>4188.091007924546</v>
+        <v>4188.091007924548</v>
       </c>
       <c r="T29" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283566</v>
       </c>
       <c r="U29" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.851627400163</v>
       </c>
       <c r="V29" t="n">
-        <v>3496.718237382059</v>
+        <v>3496.718237382061</v>
       </c>
       <c r="W29" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437415</v>
       </c>
       <c r="X29" t="n">
-        <v>2834.342818501802</v>
+        <v>2834.342818501804</v>
       </c>
       <c r="Y29" t="n">
-        <v>2476.132983851459</v>
+        <v>2476.132983851461</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6534,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H30" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177182</v>
       </c>
       <c r="I30" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J30" t="n">
-        <v>84.98040897511622</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K30" t="n">
-        <v>84.98040897511622</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="L30" t="n">
-        <v>301.7509472448909</v>
+        <v>670.3561405779133</v>
       </c>
       <c r="M30" t="n">
-        <v>850.66941185518</v>
+        <v>1219.274605188202</v>
       </c>
       <c r="N30" t="n">
-        <v>1428.524759781582</v>
+        <v>1428.524759781583</v>
       </c>
       <c r="O30" t="n">
         <v>1934.929714729833</v>
       </c>
       <c r="P30" t="n">
-        <v>2322.031270281988</v>
+        <v>2322.031270281989</v>
       </c>
       <c r="Q30" t="n">
-        <v>2530.879212293268</v>
+        <v>2530.879212293269</v>
       </c>
       <c r="R30" t="n">
         <v>2555.644190323788</v>
@@ -6610,31 +6610,31 @@
         <v>386.7245456315385</v>
       </c>
       <c r="G31" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749444</v>
       </c>
       <c r="H31" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897932</v>
       </c>
       <c r="I31" t="n">
-        <v>84.98040897511622</v>
+        <v>84.98040897511625</v>
       </c>
       <c r="J31" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042795</v>
       </c>
       <c r="K31" t="n">
-        <v>459.5287020443613</v>
+        <v>459.5287020443627</v>
       </c>
       <c r="L31" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902802</v>
       </c>
       <c r="M31" t="n">
-        <v>1285.552079040893</v>
+        <v>1285.552079040895</v>
       </c>
       <c r="N31" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354975</v>
       </c>
       <c r="O31" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313937</v>
       </c>
       <c r="P31" t="n">
         <v>2392.455631028689</v>
@@ -6655,10 +6655,10 @@
         <v>1887.747186237502</v>
       </c>
       <c r="V31" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W31" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X31" t="n">
         <v>1211.444469073043</v>
@@ -6674,13 +6674,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2121.462641112807</v>
+        <v>2121.462641112805</v>
       </c>
       <c r="C32" t="n">
-        <v>1784.429621497864</v>
+        <v>1784.429621497862</v>
       </c>
       <c r="D32" t="n">
-        <v>1458.093420216582</v>
+        <v>1458.09342021658</v>
       </c>
       <c r="E32" t="n">
         <v>1104.234664943806</v>
@@ -6692,10 +6692,10 @@
         <v>342.8002736162838</v>
       </c>
       <c r="H32" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="I32" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J32" t="n">
         <v>337.4933016076837</v>
@@ -6713,37 +6713,37 @@
         <v>2681.771598889754</v>
       </c>
       <c r="O32" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233286</v>
       </c>
       <c r="P32" t="n">
         <v>3813.656640612702</v>
       </c>
       <c r="Q32" t="n">
-        <v>4142.907144767227</v>
+        <v>4142.907144767226</v>
       </c>
       <c r="R32" t="n">
-        <v>4249.02044875581</v>
+        <v>4249.020448755809</v>
       </c>
       <c r="S32" t="n">
-        <v>4188.091007924546</v>
+        <v>4188.091007924545</v>
       </c>
       <c r="T32" t="n">
-        <v>4017.391409283564</v>
+        <v>4017.391409283563</v>
       </c>
       <c r="U32" t="n">
-        <v>3795.851627400161</v>
+        <v>3795.85162740016</v>
       </c>
       <c r="V32" t="n">
-        <v>3496.71823738206</v>
+        <v>3496.718237382058</v>
       </c>
       <c r="W32" t="n">
-        <v>3175.879079437414</v>
+        <v>3175.879079437412</v>
       </c>
       <c r="X32" t="n">
-        <v>2834.342818501803</v>
+        <v>2834.342818501801</v>
       </c>
       <c r="Y32" t="n">
-        <v>2476.13298385146</v>
+        <v>2476.132983851458</v>
       </c>
     </row>
     <row r="33">
@@ -6774,22 +6774,22 @@
         <v>89.89576342177176</v>
       </c>
       <c r="I33" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J33" t="n">
-        <v>84.98040897511621</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K33" t="n">
-        <v>84.98040897511621</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L33" t="n">
-        <v>301.7509472448914</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="M33" t="n">
-        <v>850.6694118551806</v>
+        <v>1068.517024943739</v>
       </c>
       <c r="N33" t="n">
-        <v>1428.524759781583</v>
+        <v>1646.372372870142</v>
       </c>
       <c r="O33" t="n">
         <v>1934.929714729833</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502102</v>
       </c>
       <c r="C34" t="n">
-        <v>735.8557341477716</v>
+        <v>735.8557341477718</v>
       </c>
       <c r="D34" t="n">
-        <v>617.6685920609045</v>
+        <v>617.6685920609048</v>
       </c>
       <c r="E34" t="n">
-        <v>501.6849958039801</v>
+        <v>501.6849958039803</v>
       </c>
       <c r="F34" t="n">
-        <v>386.7245456315384</v>
+        <v>386.7245456315386</v>
       </c>
       <c r="G34" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749439</v>
       </c>
       <c r="H34" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897926</v>
       </c>
       <c r="I34" t="n">
-        <v>84.98040897511621</v>
+        <v>84.98040897511619</v>
       </c>
       <c r="J34" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042782</v>
       </c>
       <c r="K34" t="n">
-        <v>459.5287020443611</v>
+        <v>459.5287020443609</v>
       </c>
       <c r="L34" t="n">
-        <v>857.3827676902786</v>
+        <v>857.3827676902785</v>
       </c>
       <c r="M34" t="n">
         <v>1285.552079040893</v>
@@ -6871,7 +6871,7 @@
         <v>1709.719201354973</v>
       </c>
       <c r="O34" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P34" t="n">
         <v>2392.455631028688</v>
@@ -6892,10 +6892,10 @@
         <v>1887.747186237502</v>
       </c>
       <c r="V34" t="n">
-        <v>1664.992195357083</v>
+        <v>1664.992195357084</v>
       </c>
       <c r="W34" t="n">
-        <v>1407.504522645591</v>
+        <v>1407.504522645592</v>
       </c>
       <c r="X34" t="n">
         <v>1211.444469073043</v>
@@ -6926,7 +6926,7 @@
         <v>725.1782574796675</v>
       </c>
       <c r="G35" t="n">
-        <v>342.8002736162838</v>
+        <v>342.8002736162839</v>
       </c>
       <c r="H35" t="n">
         <v>84.98040897511622</v>
@@ -6935,13 +6935,13 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J35" t="n">
-        <v>337.493301607683</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K35" t="n">
-        <v>766.6831886951443</v>
+        <v>766.6831886951445</v>
       </c>
       <c r="L35" t="n">
-        <v>1336.032957050962</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M35" t="n">
         <v>2001.213713746738</v>
@@ -6950,7 +6950,7 @@
         <v>2681.771598889754</v>
       </c>
       <c r="O35" t="n">
-        <v>3311.067850233287</v>
+        <v>3311.067850233286</v>
       </c>
       <c r="P35" t="n">
         <v>3813.656640612703</v>
@@ -7017,25 +7017,25 @@
         <v>84.98040897511622</v>
       </c>
       <c r="K36" t="n">
-        <v>84.98040897511622</v>
+        <v>354.3572725988141</v>
       </c>
       <c r="L36" t="n">
-        <v>538.7790385694436</v>
+        <v>808.1559021931415</v>
       </c>
       <c r="M36" t="n">
-        <v>875.4343898857002</v>
+        <v>1357.074366803431</v>
       </c>
       <c r="N36" t="n">
-        <v>1453.289737812102</v>
+        <v>1934.929714729833</v>
       </c>
       <c r="O36" t="n">
-        <v>1959.694692760353</v>
+        <v>1934.929714729833</v>
       </c>
       <c r="P36" t="n">
-        <v>2346.796248312508</v>
+        <v>2322.031270281989</v>
       </c>
       <c r="Q36" t="n">
-        <v>2555.644190323788</v>
+        <v>2530.879212293269</v>
       </c>
       <c r="R36" t="n">
         <v>2555.644190323788</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>872.8624197502108</v>
+        <v>872.8624197502093</v>
       </c>
       <c r="C37" t="n">
-        <v>735.8557341477726</v>
+        <v>735.8557341477709</v>
       </c>
       <c r="D37" t="n">
-        <v>617.6685920609045</v>
+        <v>617.6685920609038</v>
       </c>
       <c r="E37" t="n">
-        <v>501.6849958039801</v>
+        <v>501.6849958039793</v>
       </c>
       <c r="F37" t="n">
-        <v>386.7245456315384</v>
+        <v>386.7245456315383</v>
       </c>
       <c r="G37" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749441</v>
       </c>
       <c r="H37" t="n">
-        <v>140.0574709897931</v>
+        <v>140.0574709897928</v>
       </c>
       <c r="I37" t="n">
         <v>84.98040897511622</v>
@@ -7099,46 +7099,46 @@
         <v>459.5287020443612</v>
       </c>
       <c r="L37" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902787</v>
       </c>
       <c r="M37" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N37" t="n">
         <v>1709.719201354973</v>
       </c>
       <c r="O37" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P37" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q37" t="n">
         <v>2529.521427597205</v>
       </c>
       <c r="R37" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S37" t="n">
-        <v>2333.272818966196</v>
+        <v>2333.272818966195</v>
       </c>
       <c r="T37" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127667</v>
       </c>
       <c r="U37" t="n">
-        <v>1887.747186237502</v>
+        <v>1887.747186237501</v>
       </c>
       <c r="V37" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W37" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X37" t="n">
-        <v>1211.444469073043</v>
+        <v>1211.444469073042</v>
       </c>
       <c r="Y37" t="n">
-        <v>1022.581387254982</v>
+        <v>1022.58138725498</v>
       </c>
     </row>
     <row r="38">
@@ -7160,7 +7160,7 @@
         <v>1104.234664943806</v>
       </c>
       <c r="F38" t="n">
-        <v>725.1782574796673</v>
+        <v>725.1782574796674</v>
       </c>
       <c r="G38" t="n">
         <v>342.8002736162838</v>
@@ -7175,22 +7175,22 @@
         <v>337.4933016076839</v>
       </c>
       <c r="K38" t="n">
-        <v>766.6831886951445</v>
+        <v>766.6831886951454</v>
       </c>
       <c r="L38" t="n">
-        <v>1336.032957050963</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M38" t="n">
-        <v>2001.213713746738</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N38" t="n">
-        <v>2681.771598889754</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O38" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P38" t="n">
-        <v>3813.656640612703</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q38" t="n">
         <v>4142.907144767228</v>
@@ -7251,28 +7251,28 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J39" t="n">
-        <v>165.6257438946549</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K39" t="n">
-        <v>468.6667932445192</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="L39" t="n">
-        <v>922.4654228388466</v>
+        <v>670.3561405779133</v>
       </c>
       <c r="M39" t="n">
-        <v>1471.383887449136</v>
+        <v>1219.274605188202</v>
       </c>
       <c r="N39" t="n">
-        <v>2049.239235375538</v>
+        <v>1797.129953114605</v>
       </c>
       <c r="O39" t="n">
-        <v>2555.644190323788</v>
+        <v>2143.777656741113</v>
       </c>
       <c r="P39" t="n">
-        <v>2555.644190323788</v>
+        <v>2530.879212293269</v>
       </c>
       <c r="Q39" t="n">
-        <v>2555.644190323788</v>
+        <v>2530.879212293269</v>
       </c>
       <c r="R39" t="n">
         <v>2555.644190323788</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>872.8624197502096</v>
+        <v>872.8624197502097</v>
       </c>
       <c r="C40" t="n">
-        <v>735.8557341477714</v>
+        <v>735.8557341477715</v>
       </c>
       <c r="D40" t="n">
-        <v>617.6685920609043</v>
+        <v>617.6685920609044</v>
       </c>
       <c r="E40" t="n">
-        <v>501.6849958039799</v>
+        <v>501.68499580398</v>
       </c>
       <c r="F40" t="n">
-        <v>386.7245456315381</v>
+        <v>386.7245456315382</v>
       </c>
       <c r="G40" t="n">
-        <v>251.294345074944</v>
+        <v>251.2943450749441</v>
       </c>
       <c r="H40" t="n">
         <v>140.0574709897928</v>
@@ -7330,25 +7330,25 @@
         <v>84.98040897511622</v>
       </c>
       <c r="J40" t="n">
-        <v>185.1742787042785</v>
+        <v>185.1742787042784</v>
       </c>
       <c r="K40" t="n">
-        <v>459.5287020443613</v>
+        <v>459.5287020443612</v>
       </c>
       <c r="L40" t="n">
-        <v>857.3827676902788</v>
+        <v>857.3827676902787</v>
       </c>
       <c r="M40" t="n">
-        <v>1285.552079040894</v>
+        <v>1285.552079040893</v>
       </c>
       <c r="N40" t="n">
         <v>1709.719201354973</v>
       </c>
       <c r="O40" t="n">
-        <v>2087.878830313936</v>
+        <v>2087.878830313935</v>
       </c>
       <c r="P40" t="n">
-        <v>2392.455631028689</v>
+        <v>2392.455631028688</v>
       </c>
       <c r="Q40" t="n">
         <v>2529.521427597205</v>
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2121.462641112805</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C41" t="n">
-        <v>1784.429621497862</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D41" t="n">
-        <v>1458.09342021658</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E41" t="n">
-        <v>1104.234664943804</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F41" t="n">
-        <v>725.1782574796655</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G41" t="n">
         <v>342.8002736162838</v>
       </c>
       <c r="H41" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I41" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J41" t="n">
-        <v>337.4933016076837</v>
+        <v>337.4933016076839</v>
       </c>
       <c r="K41" t="n">
-        <v>766.683188695145</v>
+        <v>766.6831886951459</v>
       </c>
       <c r="L41" t="n">
-        <v>1336.032957050962</v>
+        <v>1336.032957050964</v>
       </c>
       <c r="M41" t="n">
-        <v>2001.213713746737</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N41" t="n">
-        <v>2681.771598889753</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O41" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P41" t="n">
-        <v>3813.656640612702</v>
+        <v>3813.656640612703</v>
       </c>
       <c r="Q41" t="n">
-        <v>4142.907144767226</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R41" t="n">
-        <v>4249.020448755809</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S41" t="n">
-        <v>4188.091007924545</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T41" t="n">
-        <v>4017.391409283563</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U41" t="n">
-        <v>3795.85162740016</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V41" t="n">
-        <v>3496.718237382058</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W41" t="n">
-        <v>3175.879079437412</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X41" t="n">
-        <v>2834.342818501801</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y41" t="n">
-        <v>2476.132983851458</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7482,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H42" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I42" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J42" t="n">
-        <v>216.5575109835859</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="K42" t="n">
-        <v>519.5985603334502</v>
+        <v>388.0214583249806</v>
       </c>
       <c r="L42" t="n">
-        <v>973.3971899277776</v>
+        <v>841.820087919308</v>
       </c>
       <c r="M42" t="n">
-        <v>1471.383887449136</v>
+        <v>1390.738552529597</v>
       </c>
       <c r="N42" t="n">
-        <v>2049.239235375538</v>
+        <v>1428.524759781583</v>
       </c>
       <c r="O42" t="n">
-        <v>2555.644190323788</v>
+        <v>1934.929714729833</v>
       </c>
       <c r="P42" t="n">
-        <v>2555.644190323788</v>
+        <v>2322.031270281989</v>
       </c>
       <c r="Q42" t="n">
-        <v>2555.644190323788</v>
+        <v>2530.879212293269</v>
       </c>
       <c r="R42" t="n">
         <v>2555.644190323788</v>
@@ -7543,43 +7543,43 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>872.8624197502104</v>
+        <v>872.8624197502102</v>
       </c>
       <c r="C43" t="n">
-        <v>735.8557341477722</v>
+        <v>735.855734147772</v>
       </c>
       <c r="D43" t="n">
-        <v>617.6685920609051</v>
+        <v>617.6685920609049</v>
       </c>
       <c r="E43" t="n">
-        <v>501.6849958039806</v>
+        <v>501.6849958039804</v>
       </c>
       <c r="F43" t="n">
-        <v>386.7245456315388</v>
+        <v>386.7245456315386</v>
       </c>
       <c r="G43" t="n">
         <v>251.2943450749443</v>
       </c>
       <c r="H43" t="n">
-        <v>140.057470989793</v>
+        <v>140.0574709897931</v>
       </c>
       <c r="I43" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J43" t="n">
-        <v>185.1742787042784</v>
+        <v>185.1742787042779</v>
       </c>
       <c r="K43" t="n">
-        <v>459.5287020443612</v>
+        <v>459.5287020443607</v>
       </c>
       <c r="L43" t="n">
-        <v>857.3827676902787</v>
+        <v>857.3827676902781</v>
       </c>
       <c r="M43" t="n">
         <v>1285.552079040893</v>
       </c>
       <c r="N43" t="n">
-        <v>1709.719201354973</v>
+        <v>1709.719201354972</v>
       </c>
       <c r="O43" t="n">
         <v>2087.878830313935</v>
@@ -7588,25 +7588,25 @@
         <v>2392.455631028688</v>
       </c>
       <c r="Q43" t="n">
-        <v>2529.521427597205</v>
+        <v>2529.521427597204</v>
       </c>
       <c r="R43" t="n">
-        <v>2487.049233352543</v>
+        <v>2487.049233352542</v>
       </c>
       <c r="S43" t="n">
         <v>2333.272818966196</v>
       </c>
       <c r="T43" t="n">
-        <v>2144.901839127669</v>
+        <v>2144.901839127668</v>
       </c>
       <c r="U43" t="n">
         <v>1887.747186237502</v>
       </c>
       <c r="V43" t="n">
-        <v>1664.992195357084</v>
+        <v>1664.992195357083</v>
       </c>
       <c r="W43" t="n">
-        <v>1407.504522645592</v>
+        <v>1407.504522645591</v>
       </c>
       <c r="X43" t="n">
         <v>1211.444469073043</v>
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2121.462641112805</v>
+        <v>2121.462641112807</v>
       </c>
       <c r="C44" t="n">
-        <v>1784.429621497862</v>
+        <v>1784.429621497864</v>
       </c>
       <c r="D44" t="n">
-        <v>1458.09342021658</v>
+        <v>1458.093420216582</v>
       </c>
       <c r="E44" t="n">
-        <v>1104.234664943804</v>
+        <v>1104.234664943806</v>
       </c>
       <c r="F44" t="n">
-        <v>725.1782574796655</v>
+        <v>725.1782574796675</v>
       </c>
       <c r="G44" t="n">
-        <v>342.8002736162819</v>
+        <v>342.8002736162838</v>
       </c>
       <c r="H44" t="n">
-        <v>84.98040897511424</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="I44" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J44" t="n">
         <v>337.4933016076836</v>
@@ -7652,46 +7652,46 @@
         <v>766.6831886951447</v>
       </c>
       <c r="L44" t="n">
-        <v>1336.032957050962</v>
+        <v>1336.032957050963</v>
       </c>
       <c r="M44" t="n">
-        <v>2001.213713746737</v>
+        <v>2001.213713746739</v>
       </c>
       <c r="N44" t="n">
-        <v>2681.771598889753</v>
+        <v>2681.771598889755</v>
       </c>
       <c r="O44" t="n">
-        <v>3311.067850233286</v>
+        <v>3311.067850233288</v>
       </c>
       <c r="P44" t="n">
-        <v>3813.656640612702</v>
+        <v>3813.656640612704</v>
       </c>
       <c r="Q44" t="n">
-        <v>4142.907144767226</v>
+        <v>4142.907144767228</v>
       </c>
       <c r="R44" t="n">
-        <v>4249.020448755809</v>
+        <v>4249.020448755811</v>
       </c>
       <c r="S44" t="n">
-        <v>4188.091007924545</v>
+        <v>4188.091007924547</v>
       </c>
       <c r="T44" t="n">
-        <v>4017.391409283563</v>
+        <v>4017.391409283565</v>
       </c>
       <c r="U44" t="n">
-        <v>3795.85162740016</v>
+        <v>3795.851627400162</v>
       </c>
       <c r="V44" t="n">
-        <v>3496.718237382058</v>
+        <v>3496.71823738206</v>
       </c>
       <c r="W44" t="n">
-        <v>3175.879079437412</v>
+        <v>3175.879079437414</v>
       </c>
       <c r="X44" t="n">
-        <v>2834.342818501801</v>
+        <v>2834.342818501803</v>
       </c>
       <c r="Y44" t="n">
-        <v>2476.132983851458</v>
+        <v>2476.13298385146</v>
       </c>
     </row>
     <row r="45">
@@ -7719,34 +7719,34 @@
         <v>176.4447347764803</v>
       </c>
       <c r="H45" t="n">
-        <v>89.89576342177176</v>
+        <v>89.89576342177179</v>
       </c>
       <c r="I45" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J45" t="n">
-        <v>84.98040897511619</v>
+        <v>216.5575109835859</v>
       </c>
       <c r="K45" t="n">
-        <v>84.98040897511619</v>
+        <v>519.5985603334502</v>
       </c>
       <c r="L45" t="n">
-        <v>538.7790385694436</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="M45" t="n">
-        <v>875.4343898857002</v>
+        <v>973.3971899277776</v>
       </c>
       <c r="N45" t="n">
-        <v>1453.289737812102</v>
+        <v>1551.25253785418</v>
       </c>
       <c r="O45" t="n">
-        <v>1959.694692760353</v>
+        <v>2057.65749280243</v>
       </c>
       <c r="P45" t="n">
-        <v>2346.796248312508</v>
+        <v>2322.031270281989</v>
       </c>
       <c r="Q45" t="n">
-        <v>2555.644190323788</v>
+        <v>2530.879212293269</v>
       </c>
       <c r="R45" t="n">
         <v>2555.644190323788</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>872.8624197502099</v>
+        <v>872.8624197502095</v>
       </c>
       <c r="C46" t="n">
-        <v>735.8557341477717</v>
+        <v>735.8557341477712</v>
       </c>
       <c r="D46" t="n">
-        <v>617.6685920609046</v>
+        <v>617.6685920609041</v>
       </c>
       <c r="E46" t="n">
-        <v>501.6849958039802</v>
+        <v>501.6849958039796</v>
       </c>
       <c r="F46" t="n">
-        <v>386.7245456315385</v>
+        <v>386.7245456315379</v>
       </c>
       <c r="G46" t="n">
-        <v>251.2943450749443</v>
+        <v>251.2943450749437</v>
       </c>
       <c r="H46" t="n">
         <v>140.0574709897931</v>
       </c>
       <c r="I46" t="n">
-        <v>84.98040897511619</v>
+        <v>84.98040897511622</v>
       </c>
       <c r="J46" t="n">
         <v>185.1742787042784</v>
@@ -8061,7 +8061,7 @@
         <v>100.9222782029847</v>
       </c>
       <c r="L3" t="n">
-        <v>88.91201201533924</v>
+        <v>88.91201201533923</v>
       </c>
       <c r="M3" t="n">
         <v>84.20373222002493</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>84.0084055289269</v>
+        <v>84.00840552892579</v>
       </c>
       <c r="K5" t="n">
-        <v>74.65579442398484</v>
+        <v>102.4143086146595</v>
       </c>
       <c r="L5" t="n">
-        <v>55.34260757265986</v>
+        <v>55.34260757265781</v>
       </c>
       <c r="M5" t="n">
-        <v>56.22694161359767</v>
+        <v>29.58998355183707</v>
       </c>
       <c r="N5" t="n">
-        <v>53.16688210788632</v>
+        <v>53.16688210788581</v>
       </c>
       <c r="O5" t="n">
-        <v>65.22087637441976</v>
+        <v>65.22087637441942</v>
       </c>
       <c r="P5" t="n">
-        <v>94.58126940924635</v>
+        <v>93.45971328033008</v>
       </c>
       <c r="Q5" t="n">
-        <v>98.84044626385979</v>
+        <v>98.84044626385838</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,28 +8292,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>96.80127122769477</v>
+        <v>69.04275703701964</v>
       </c>
       <c r="K6" t="n">
-        <v>39.06080134589739</v>
+        <v>66.81931553657256</v>
       </c>
       <c r="L6" t="n">
-        <v>5.731622200576794</v>
+        <v>19.50472093405381</v>
       </c>
       <c r="M6" t="n">
-        <v>13.77309873347853</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>24.8091343465795</v>
+        <v>24.80913434657964</v>
       </c>
       <c r="P6" t="n">
-        <v>17.16121239387878</v>
+        <v>17.16121239387745</v>
       </c>
       <c r="Q6" t="n">
-        <v>61.89524673347387</v>
+        <v>61.89524673347299</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8374,22 +8374,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>97.18768225025153</v>
+        <v>97.18768225025266</v>
       </c>
       <c r="L7" t="n">
-        <v>58.63755502344385</v>
+        <v>85.27451308520307</v>
       </c>
       <c r="M7" t="n">
-        <v>58.53388521652099</v>
+        <v>58.53388521652006</v>
       </c>
       <c r="N7" t="n">
-        <v>76.96369959192</v>
+        <v>76.96369959192093</v>
       </c>
       <c r="O7" t="n">
-        <v>93.72573863272223</v>
+        <v>93.72573863272322</v>
       </c>
       <c r="P7" t="n">
-        <v>102.3378310595609</v>
+        <v>75.70087299780189</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8529,16 +8529,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>73.01783107116394</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>8.287118509957395</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>58.49750737927798</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8617,19 +8617,19 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M10" t="n">
-        <v>121.4700595717842</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N10" t="n">
         <v>171.8177168444618</v>
       </c>
       <c r="O10" t="n">
-        <v>163.0416663658825</v>
+        <v>102.5492171288674</v>
       </c>
       <c r="P10" t="n">
         <v>135.0065633140411</v>
       </c>
       <c r="Q10" t="n">
-        <v>61.89011047839801</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>1.747935129969846e-12</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9635,13 +9635,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>-2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1.591615728102624e-12</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9875,7 +9875,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>6.252776074688882e-13</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>1.932676241267473e-12</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -11300,7 +11300,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>7.958078640513122e-13</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>375.6009740289475</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>14.87542442342334</v>
+        <v>14.87542442342333</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>194.0019016021898</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,25 +22592,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>123.0269119439133</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2252865051633</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>149.4481983359573</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>203.9886248802663</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,7 +23264,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>72.99284122478696</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.9345864167828</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,13 +23425,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.6861009032421</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>21.76888737749346</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23464,13 +23464,13 @@
         <v>73.65767465442971</v>
       </c>
       <c r="S13" t="n">
-        <v>183.8488525946973</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>218.097472392356</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>278.0085125971783</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>362.9928625218836</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23507,13 +23507,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>63.76061580885784</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.8518683469698</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>12.3803783660548</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>91.93034877516556</v>
+        <v>91.9303487751657</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23656,16 +23656,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>111.4842752933121</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>73.65767465442971</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>80.73839297983875</v>
       </c>
     </row>
     <row r="17">
@@ -23792,7 +23792,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1.243449787580175e-12</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1.222133505507372e-12</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-1.287607070781509e-12</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -25315,7 +25315,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>-1.037392394209746e-12</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1187651.523696735</v>
+        <v>1187651.523696736</v>
       </c>
     </row>
     <row r="3">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>68833.95481832918</v>
+        <v>68833.95481832922</v>
       </c>
       <c r="C2" t="n">
         <v>82104.17698642834</v>
@@ -26320,37 +26320,37 @@
         <v>82104.17698642828</v>
       </c>
       <c r="E2" t="n">
+        <v>76674.31819513101</v>
+      </c>
+      <c r="F2" t="n">
         <v>76674.31819513105</v>
       </c>
-      <c r="F2" t="n">
-        <v>76674.31819513103</v>
-      </c>
       <c r="G2" t="n">
-        <v>82104.17698642825</v>
+        <v>82104.17698642831</v>
       </c>
       <c r="H2" t="n">
-        <v>82104.17698642824</v>
+        <v>82104.17698642821</v>
       </c>
       <c r="I2" t="n">
+        <v>82104.1769864283</v>
+      </c>
+      <c r="J2" t="n">
         <v>82104.17698642828</v>
       </c>
-      <c r="J2" t="n">
-        <v>82104.17698642849</v>
-      </c>
       <c r="K2" t="n">
-        <v>82104.17698642836</v>
+        <v>82104.17698642827</v>
       </c>
       <c r="L2" t="n">
         <v>82104.17698642831</v>
       </c>
       <c r="M2" t="n">
-        <v>82104.17698642827</v>
+        <v>82104.17698642831</v>
       </c>
       <c r="N2" t="n">
-        <v>82104.1769864283</v>
+        <v>82104.17698642836</v>
       </c>
       <c r="O2" t="n">
-        <v>82104.17698642833</v>
+        <v>82104.17698642828</v>
       </c>
       <c r="P2" t="n">
         <v>82104.1769864283</v>
@@ -26366,19 +26366,19 @@
         <v>102426.4069980972</v>
       </c>
       <c r="C3" t="n">
-        <v>171151.3438715905</v>
+        <v>171151.3438715941</v>
       </c>
       <c r="D3" t="n">
-        <v>330566.1828097475</v>
+        <v>330566.1828097442</v>
       </c>
       <c r="E3" t="n">
-        <v>795641.6244428752</v>
+        <v>795641.624442875</v>
       </c>
       <c r="F3" t="n">
-        <v>1.080024958355352e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>25288.16188177102</v>
+        <v>25288.16188177113</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1.250555214937776e-10</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>7144.153280225401</v>
+        <v>7144.153280226027</v>
       </c>
       <c r="L3" t="n">
-        <v>78955.9651698206</v>
+        <v>78955.96516982018</v>
       </c>
       <c r="M3" t="n">
-        <v>204957.1230692803</v>
+        <v>204957.1230692802</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.409262040397148e-12</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>316573.0176407667</v>
+        <v>316573.0176407669</v>
       </c>
       <c r="C4" t="n">
-        <v>350239.0167037611</v>
+        <v>350239.0167037602</v>
       </c>
       <c r="D4" t="n">
         <v>255177.1421685144</v>
@@ -26427,37 +26427,37 @@
         <v>8669.990103765376</v>
       </c>
       <c r="F4" t="n">
-        <v>8669.990103765513</v>
+        <v>8669.990103765376</v>
       </c>
       <c r="G4" t="n">
         <v>39739.87518598539</v>
       </c>
       <c r="H4" t="n">
-        <v>39739.87518598539</v>
+        <v>39739.87518598543</v>
       </c>
       <c r="I4" t="n">
-        <v>39739.87518598539</v>
+        <v>39739.87518598542</v>
       </c>
       <c r="J4" t="n">
-        <v>39739.87518598555</v>
+        <v>39739.87518598542</v>
       </c>
       <c r="K4" t="n">
+        <v>39739.87518598547</v>
+      </c>
+      <c r="L4" t="n">
+        <v>39739.87518598551</v>
+      </c>
+      <c r="M4" t="n">
+        <v>39739.8751859854</v>
+      </c>
+      <c r="N4" t="n">
         <v>39739.87518598541</v>
       </c>
-      <c r="L4" t="n">
-        <v>39739.87518598546</v>
-      </c>
-      <c r="M4" t="n">
-        <v>39739.87518598547</v>
-      </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>39739.87518598545</v>
       </c>
-      <c r="O4" t="n">
-        <v>39739.87518598552</v>
-      </c>
       <c r="P4" t="n">
-        <v>39739.87518598551</v>
+        <v>39739.87518598544</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>35944.81206807974</v>
       </c>
       <c r="C5" t="n">
-        <v>41515.23339280493</v>
+        <v>41515.23339280512</v>
       </c>
       <c r="D5" t="n">
         <v>61145.70223437333</v>
@@ -26479,37 +26479,37 @@
         <v>92448.99600060702</v>
       </c>
       <c r="F5" t="n">
-        <v>92448.99600060703</v>
+        <v>92448.99600060702</v>
       </c>
       <c r="G5" t="n">
-        <v>95106.43410215528</v>
+        <v>95106.4341021553</v>
       </c>
       <c r="H5" t="n">
-        <v>95106.43410215528</v>
+        <v>95106.4341021553</v>
       </c>
       <c r="I5" t="n">
-        <v>95106.43410215528</v>
+        <v>95106.4341021553</v>
       </c>
       <c r="J5" t="n">
         <v>95106.43410215527</v>
       </c>
       <c r="K5" t="n">
+        <v>95106.4341021553</v>
+      </c>
+      <c r="L5" t="n">
+        <v>95106.43410215525</v>
+      </c>
+      <c r="M5" t="n">
+        <v>95106.43410215527</v>
+      </c>
+      <c r="N5" t="n">
+        <v>95106.43410215527</v>
+      </c>
+      <c r="O5" t="n">
         <v>95106.43410215528</v>
       </c>
-      <c r="L5" t="n">
+      <c r="P5" t="n">
         <v>95106.43410215527</v>
-      </c>
-      <c r="M5" t="n">
-        <v>95106.43410215528</v>
-      </c>
-      <c r="N5" t="n">
-        <v>95106.43410215528</v>
-      </c>
-      <c r="O5" t="n">
-        <v>95106.43410215525</v>
-      </c>
-      <c r="P5" t="n">
-        <v>95106.43410215525</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-386110.2818886144</v>
+        <v>-386442.037442817</v>
       </c>
       <c r="C6" t="n">
-        <v>-480801.4169817282</v>
+        <v>-480801.416981731</v>
       </c>
       <c r="D6" t="n">
-        <v>-564784.8502262069</v>
+        <v>-564784.8502262037</v>
       </c>
       <c r="E6" t="n">
-        <v>-820086.2923521166</v>
+        <v>-820222.0388218989</v>
       </c>
       <c r="F6" t="n">
-        <v>-24444.66790924162</v>
+        <v>-24580.41437902377</v>
       </c>
       <c r="G6" t="n">
-        <v>-78030.29418348345</v>
+        <v>-78030.29418348349</v>
       </c>
       <c r="H6" t="n">
-        <v>-52742.13230171243</v>
+        <v>-52742.13230171252</v>
       </c>
       <c r="I6" t="n">
-        <v>-52742.13230171239</v>
+        <v>-52742.13230171242</v>
       </c>
       <c r="J6" t="n">
-        <v>-52742.13230171246</v>
+        <v>-52742.13230171241</v>
       </c>
       <c r="K6" t="n">
-        <v>-59886.28558193774</v>
+        <v>-59886.28558193854</v>
       </c>
       <c r="L6" t="n">
-        <v>-131698.097471533</v>
+        <v>-131698.0974715326</v>
       </c>
       <c r="M6" t="n">
-        <v>-257699.2553709928</v>
+        <v>-257699.2553709925</v>
       </c>
       <c r="N6" t="n">
-        <v>-52742.13230171244</v>
+        <v>-52742.13230171232</v>
       </c>
       <c r="O6" t="n">
         <v>-52742.13230171245</v>
       </c>
       <c r="P6" t="n">
-        <v>-52742.13230171247</v>
+        <v>-52742.13230171241</v>
       </c>
     </row>
   </sheetData>
@@ -26695,7 +26695,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1.35003119794419e-13</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>31.61020235221391</v>
@@ -26707,25 +26707,25 @@
         <v>31.61020235221391</v>
       </c>
       <c r="J2" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="K2" t="n">
+        <v>31.61020235221395</v>
+      </c>
+      <c r="L2" t="n">
+        <v>31.61020235221395</v>
+      </c>
+      <c r="M2" t="n">
+        <v>31.61020235221391</v>
+      </c>
+      <c r="N2" t="n">
         <v>31.61020235221394</v>
-      </c>
-      <c r="L2" t="n">
-        <v>31.61020235221393</v>
-      </c>
-      <c r="M2" t="n">
-        <v>31.61020235221397</v>
-      </c>
-      <c r="N2" t="n">
-        <v>31.61020235221397</v>
       </c>
       <c r="O2" t="n">
         <v>31.61020235221395</v>
       </c>
       <c r="P2" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
     <row r="3">
@@ -26738,7 +26738,7 @@
         <v>106.2941315632906</v>
       </c>
       <c r="C3" t="n">
-        <v>284.3998041289874</v>
+        <v>284.3998041289906</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26790,7 +26790,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>27.75851419067448</v>
+        <v>27.75851419067629</v>
       </c>
       <c r="D4" t="n">
         <v>239.8079481415051</v>
@@ -26817,7 +26817,7 @@
         <v>1062.255112188953</v>
       </c>
       <c r="L4" t="n">
-        <v>1062.255112188953</v>
+        <v>1062.255112188952</v>
       </c>
       <c r="M4" t="n">
         <v>1062.255112188953</v>
@@ -26826,10 +26826,10 @@
         <v>1062.255112188953</v>
       </c>
       <c r="O4" t="n">
-        <v>1062.255112188952</v>
+        <v>1062.255112188953</v>
       </c>
       <c r="P4" t="n">
-        <v>1062.255112188952</v>
+        <v>1062.255112188953</v>
       </c>
     </row>
   </sheetData>
@@ -26917,10 +26917,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1.35003119794419e-13</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.61020235221378</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.56319401867222e-13</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221377</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="M2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.385558334732195e-13</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26960,10 +26960,10 @@
         <v>106.2941315632906</v>
       </c>
       <c r="C3" t="n">
-        <v>178.1056725656968</v>
+        <v>178.1056725657</v>
       </c>
       <c r="D3" t="n">
-        <v>309.0762962090777</v>
+        <v>309.0762962090744</v>
       </c>
       <c r="E3" t="n">
         <v>684.6837702820579</v>
@@ -27012,37 +27012,37 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>27.75851419067447</v>
+        <v>27.75851419067629</v>
       </c>
       <c r="D4" t="n">
-        <v>212.0494339508307</v>
+        <v>212.0494339508288</v>
       </c>
       <c r="E4" t="n">
+        <v>822.4471640474477</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>27.75851419067649</v>
+      </c>
+      <c r="L4" t="n">
+        <v>212.0494339508282</v>
+      </c>
+      <c r="M4" t="n">
         <v>822.4471640474479</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>27.75851419067406</v>
-      </c>
-      <c r="L4" t="n">
-        <v>212.0494339508303</v>
-      </c>
-      <c r="M4" t="n">
-        <v>822.4471640474482</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,10 +27154,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1.35003119794419e-13</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>31.61020235221378</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.56319401867222e-13</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27258,13 +27258,13 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>27.75851419067447</v>
+        <v>27.75851419067629</v>
       </c>
       <c r="L4" t="n">
-        <v>212.0494339508307</v>
+        <v>212.0494339508288</v>
       </c>
       <c r="M4" t="n">
-        <v>822.4471640474479</v>
+        <v>822.4471640474477</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.329396043314262</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27397,7 +27397,7 @@
         <v>335.0985819152745</v>
       </c>
       <c r="I2" t="n">
-        <v>194.0019016021898</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,25 +27424,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>123.0269119439133</v>
       </c>
       <c r="S2" t="n">
         <v>199.2826725088645</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2252865051633</v>
       </c>
       <c r="U2" t="n">
         <v>251.3114678604996</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>199.7927703814557</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27506,7 +27506,7 @@
         <v>85.96255371481348</v>
       </c>
       <c r="S3" t="n">
-        <v>167.4364197154366</v>
+        <v>167.4364197154365</v>
       </c>
       <c r="T3" t="n">
         <v>199.2431786296644</v>
@@ -27616,7 +27616,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>337.5143775803313</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27625,16 +27625,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>379.117531551037</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>327.7658192251702</v>
+        <v>327.76581922517</v>
       </c>
       <c r="I5" t="n">
-        <v>138.6396931739715</v>
+        <v>138.6396931739692</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>50.29179291181187</v>
+        <v>78.05030710248552</v>
       </c>
       <c r="S5" t="n">
-        <v>182.9667608964391</v>
+        <v>155.2082467057625</v>
       </c>
       <c r="T5" t="n">
         <v>218.0909846693589</v>
@@ -27679,7 +27679,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>359.4408230989646</v>
+        <v>366.3168688406744</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27695,7 +27695,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>144.9499847976394</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -27710,10 +27710,10 @@
         <v>136.7317892826313</v>
       </c>
       <c r="H6" t="n">
-        <v>78.56892656759528</v>
+        <v>106.3274407582697</v>
       </c>
       <c r="I6" t="n">
-        <v>40.57643505307502</v>
+        <v>40.57643505307297</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,16 +27740,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>34.4185310256484</v>
+        <v>62.17704521632244</v>
       </c>
       <c r="S6" t="n">
-        <v>135.8708947246327</v>
+        <v>160.3205940237786</v>
       </c>
       <c r="T6" t="n">
         <v>197.6990360533637</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9011368256735</v>
+        <v>198.1426226349973</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27761,7 +27761,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>181.2329964781567</v>
       </c>
     </row>
     <row r="7">
@@ -27771,31 +27771,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>155.3822808827912</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>139.4883069079534</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>120.8569588275379</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>117.662533832255</v>
       </c>
       <c r="G7" t="n">
         <v>167.4781272526524</v>
       </c>
       <c r="H7" t="n">
-        <v>157.6674510576339</v>
+        <v>157.6674510576338</v>
       </c>
       <c r="I7" t="n">
-        <v>140.0276134180994</v>
+        <v>140.0276134180992</v>
       </c>
       <c r="J7" t="n">
-        <v>57.10053623616237</v>
+        <v>57.10053623616196</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>15.45915863754281</v>
+        <v>43.2176728282168</v>
       </c>
       <c r="R7" t="n">
-        <v>154.2336957833667</v>
+        <v>129.7839964842187</v>
       </c>
       <c r="S7" t="n">
-        <v>215.0789845203285</v>
+        <v>187.3204703296521</v>
       </c>
       <c r="T7" t="n">
-        <v>225.754312248927</v>
+        <v>197.9957980582507</v>
       </c>
       <c r="U7" t="n">
         <v>286.2910556052651</v>
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>142.9258935219755</v>
       </c>
       <c r="C8" t="n">
-        <v>125.4649436295024</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>114.8750934791779</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>345.1533661650125</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>11.34683808079549</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>87.94431032862977</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>178.3012096430797</v>
+        <v>129.923152536964</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27929,13 +27929,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -27944,13 +27944,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.0669836643703</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>99.90681807664345</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>20.90078060183509</v>
       </c>
       <c r="S9" t="n">
         <v>147.9721212459916</v>
@@ -27992,10 +27992,10 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>198.1843388348627</v>
+        <v>43.04363016910543</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>174.6290971171501</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28017,16 +28017,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>123.266557879417</v>
@@ -28062,19 +28062,19 @@
         <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>245.5561396189308</v>
+        <v>46.4527065165919</v>
       </c>
       <c r="V10" t="n">
-        <v>12.32969518232287</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>46.71505019508587</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.35003119794419e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>1.35003119794419e-13</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>1.35003119794419e-13</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1.35003119794419e-13</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1.35003119794419e-13</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.35003119794419e-13</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1.35003119794419e-13</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.35003119794419e-13</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>1.35003119794419e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>1.35003119794419e-13</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>1.35003119794419e-13</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>1.35003119794419e-13</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>1.35003119794419e-13</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>1.35003119794419e-13</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.35003119794419e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.35003119794419e-13</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1.35003119794419e-13</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>1.35003119794419e-13</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>1.35003119794419e-13</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1.35003119794419e-13</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.35003119794419e-13</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>1.35003119794419e-13</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1.35003119794419e-13</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1.35003119794419e-13</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>1.35003119794419e-13</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>1.35003119794419e-13</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>1.35003119794419e-13</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>1.35003119794419e-13</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>1.35003119794419e-13</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1.35003119794419e-13</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.35003119794419e-13</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>1.35003119794419e-13</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>1.35003119794419e-13</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>1.35003119794419e-13</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>1.35003119794419e-13</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>1.35003119794419e-13</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>1.35003119794419e-13</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>1.35003119794419e-13</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.35003119794419e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -28582,7 +28582,7 @@
         <v>31.61020235221391</v>
       </c>
       <c r="I17" t="n">
-        <v>12.38037836605494</v>
+        <v>12.38037836605491</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28819,7 +28819,7 @@
         <v>31.61020235221391</v>
       </c>
       <c r="I20" t="n">
-        <v>12.38037836605494</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -29053,10 +29053,10 @@
         <v>31.61020235221391</v>
       </c>
       <c r="H23" t="n">
-        <v>31.61020235221429</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I23" t="n">
-        <v>12.38037836605494</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29101,7 +29101,7 @@
         <v>31.61020235221391</v>
       </c>
       <c r="X23" t="n">
-        <v>31.61020235221391</v>
+        <v>31.61020235221355</v>
       </c>
       <c r="Y23" t="n">
         <v>31.61020235221391</v>
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="C26" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="D26" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="E26" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="F26" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="G26" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H26" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="I26" t="n">
-        <v>12.38037836605494</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="T26" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="U26" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="V26" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="W26" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="X26" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Y26" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="C28" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="D28" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="E28" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="F28" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="G28" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H28" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="I28" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="J28" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="K28" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="L28" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="M28" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="N28" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="O28" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="P28" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Q28" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="R28" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="S28" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="T28" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="U28" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="V28" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="W28" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="X28" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Y28" t="n">
-        <v>31.61020235221407</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I29" t="n">
-        <v>12.38037836605494</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y29" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="J31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="K31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="L31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="M31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="N31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="O31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="P31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Q31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="R31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="S31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y31" t="n">
-        <v>31.61020235221394</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C32" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D32" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E32" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221594</v>
       </c>
       <c r="F32" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G32" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H32" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I32" t="n">
         <v>12.38037836605497</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T32" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U32" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V32" t="n">
-        <v>31.6102023522152</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W32" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X32" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y32" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="C34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="D34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="E34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="F34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="G34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="I34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="J34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="K34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="L34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="M34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="N34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="O34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="P34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Q34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="R34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="S34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="T34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="U34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="V34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="W34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="X34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="Y34" t="n">
-        <v>31.61020235221393</v>
+        <v>31.61020235221395</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221429</v>
       </c>
       <c r="C35" t="n">
-        <v>31.61020235221423</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D35" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E35" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F35" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G35" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H35" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I35" t="n">
         <v>12.38037836605497</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T35" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U35" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V35" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W35" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X35" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y35" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="C37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="D37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="E37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="F37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="G37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="H37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="I37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="J37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="K37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="L37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="M37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="N37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="O37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="P37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Q37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="R37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="S37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="T37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="U37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="V37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="W37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="X37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221391</v>
       </c>
       <c r="Y37" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221391</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G38" t="n">
-        <v>31.61020235221412</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I38" t="n">
         <v>12.38037836605497</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y38" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="C40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="D40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="E40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="F40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="G40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="H40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="I40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="J40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="K40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="L40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="M40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="N40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="O40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="P40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Q40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="R40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="S40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="T40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="U40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="V40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="W40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="X40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
       <c r="Y40" t="n">
-        <v>31.61020235221397</v>
+        <v>31.61020235221394</v>
       </c>
     </row>
     <row r="41">
@@ -30472,7 +30472,7 @@
         <v>31.61020235221395</v>
       </c>
       <c r="G41" t="n">
-        <v>31.61020235221588</v>
+        <v>31.61020235221395</v>
       </c>
       <c r="H41" t="n">
         <v>31.61020235221395</v>
@@ -30523,7 +30523,7 @@
         <v>31.61020235221395</v>
       </c>
       <c r="X41" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221446</v>
       </c>
       <c r="Y41" t="n">
         <v>31.61020235221395</v>
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="C44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221423</v>
       </c>
       <c r="D44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="E44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="F44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="G44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="I44" t="n">
-        <v>12.3803783660569</v>
+        <v>12.38037836605497</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="T44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="U44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="V44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="W44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="X44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Y44" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="C46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="D46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="E46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="F46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="G46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="H46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="I46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="J46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="K46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="L46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="M46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="N46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="O46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="P46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Q46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="R46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="S46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="T46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="U46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="V46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="W46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="X46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
       <c r="Y46" t="n">
-        <v>31.61020235221395</v>
+        <v>31.61020235221393</v>
       </c>
     </row>
   </sheetData>
@@ -31051,7 +31051,7 @@
         <v>36.2676645176677</v>
       </c>
       <c r="K2" t="n">
-        <v>54.35582768982485</v>
+        <v>54.35582768982486</v>
       </c>
       <c r="L2" t="n">
         <v>67.43321072029745</v>
@@ -31063,7 +31063,7 @@
         <v>76.24654323685169</v>
       </c>
       <c r="O2" t="n">
-        <v>71.99744868114325</v>
+        <v>71.99744868114327</v>
       </c>
       <c r="P2" t="n">
         <v>61.44815672951015</v>
@@ -31124,7 +31124,7 @@
         <v>2.208110167003453</v>
       </c>
       <c r="I3" t="n">
-        <v>7.871782384639921</v>
+        <v>7.871782384639922</v>
       </c>
       <c r="J3" t="n">
         <v>21.60077252834759</v>
@@ -31133,7 +31133,7 @@
         <v>36.91916077137427</v>
       </c>
       <c r="L3" t="n">
-        <v>49.64236776453494</v>
+        <v>49.64236776453495</v>
       </c>
       <c r="M3" t="n">
         <v>57.93030170199339</v>
@@ -31142,22 +31142,22 @@
         <v>59.46354441105257</v>
       </c>
       <c r="O3" t="n">
-        <v>54.39752598975308</v>
+        <v>54.39752598975309</v>
       </c>
       <c r="P3" t="n">
         <v>43.65881037738254</v>
       </c>
       <c r="Q3" t="n">
-        <v>29.18475853790576</v>
+        <v>29.18475853790577</v>
       </c>
       <c r="R3" t="n">
         <v>14.19528043782965</v>
       </c>
       <c r="S3" t="n">
-        <v>4.246751388401279</v>
+        <v>4.24675138840128</v>
       </c>
       <c r="T3" t="n">
-        <v>0.9215500651572082</v>
+        <v>0.9215500651572083</v>
       </c>
       <c r="U3" t="n">
         <v>0.0150416223910317</v>
@@ -31203,10 +31203,10 @@
         <v>1.70419115850653</v>
       </c>
       <c r="I4" t="n">
-        <v>5.764278478874846</v>
+        <v>5.764278478874845</v>
       </c>
       <c r="J4" t="n">
-        <v>13.55163051094608</v>
+        <v>13.55163051094609</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -31224,7 +31224,7 @@
         <v>27.09280586141055</v>
       </c>
       <c r="P4" t="n">
-        <v>23.18257584127898</v>
+        <v>23.18257584127899</v>
       </c>
       <c r="Q4" t="n">
         <v>16.05041386605689</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.143315795493416</v>
+        <v>1.143315795493429</v>
       </c>
       <c r="H5" t="n">
-        <v>11.70898289059695</v>
+        <v>11.70898289059708</v>
       </c>
       <c r="I5" t="n">
-        <v>44.07768220575996</v>
+        <v>44.07768220576046</v>
       </c>
       <c r="J5" t="n">
-        <v>97.03749899775939</v>
+        <v>97.03749899776049</v>
       </c>
       <c r="K5" t="n">
-        <v>145.4340566209957</v>
+        <v>145.4340566209974</v>
       </c>
       <c r="L5" t="n">
-        <v>180.4238073973274</v>
+        <v>180.4238073973294</v>
       </c>
       <c r="M5" t="n">
-        <v>200.7562496754334</v>
+        <v>200.7562496754357</v>
       </c>
       <c r="N5" t="n">
-        <v>204.0046956793791</v>
+        <v>204.0046956793814</v>
       </c>
       <c r="O5" t="n">
-        <v>192.6358492379414</v>
+        <v>192.6358492379436</v>
       </c>
       <c r="P5" t="n">
-        <v>164.4102405366977</v>
+        <v>164.4102405366995</v>
       </c>
       <c r="Q5" t="n">
-        <v>123.4652436105897</v>
+        <v>123.4652436105911</v>
       </c>
       <c r="R5" t="n">
-        <v>71.81881083866334</v>
+        <v>71.81881083866416</v>
       </c>
       <c r="S5" t="n">
-        <v>26.05330868980624</v>
+        <v>26.05330868980653</v>
       </c>
       <c r="T5" t="n">
-        <v>5.00486489477243</v>
+        <v>5.004864894772488</v>
       </c>
       <c r="U5" t="n">
-        <v>0.09146526363947324</v>
+        <v>0.09146526363947428</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6117278805793314</v>
+        <v>0.6117278805793384</v>
       </c>
       <c r="H6" t="n">
-        <v>5.908003478226702</v>
+        <v>5.908003478226769</v>
       </c>
       <c r="I6" t="n">
-        <v>21.06168360766558</v>
+        <v>21.06168360766582</v>
       </c>
       <c r="J6" t="n">
-        <v>57.7948696296464</v>
+        <v>57.79486962964706</v>
       </c>
       <c r="K6" t="n">
-        <v>98.78063762846161</v>
+        <v>98.78063762846273</v>
       </c>
       <c r="L6" t="n">
-        <v>132.8227575792974</v>
+        <v>132.8227575792989</v>
       </c>
       <c r="M6" t="n">
-        <v>154.9978932502981</v>
+        <v>154.9978932502999</v>
       </c>
       <c r="N6" t="n">
-        <v>159.1002262740078</v>
+        <v>159.1002262740096</v>
       </c>
       <c r="O6" t="n">
-        <v>145.5456242885394</v>
+        <v>145.5456242885411</v>
       </c>
       <c r="P6" t="n">
-        <v>116.8131950204515</v>
+        <v>116.8131950204528</v>
       </c>
       <c r="Q6" t="n">
-        <v>78.08652735254765</v>
+        <v>78.08652735254853</v>
       </c>
       <c r="R6" t="n">
-        <v>37.98078893632026</v>
+        <v>37.98078893632069</v>
       </c>
       <c r="S6" t="n">
-        <v>11.36257708005907</v>
+        <v>11.36257708005919</v>
       </c>
       <c r="T6" t="n">
-        <v>2.465692641457918</v>
+        <v>2.465692641457946</v>
       </c>
       <c r="U6" t="n">
-        <v>0.04024525530127182</v>
+        <v>0.04024525530127228</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.5128521058063706</v>
+        <v>0.5128521058063765</v>
       </c>
       <c r="H7" t="n">
-        <v>4.559721449805735</v>
+        <v>4.559721449805787</v>
       </c>
       <c r="I7" t="n">
-        <v>15.42286150915886</v>
+        <v>15.42286150915904</v>
       </c>
       <c r="J7" t="n">
-        <v>36.25864388051041</v>
+        <v>36.25864388051082</v>
       </c>
       <c r="K7" t="n">
-        <v>59.58409011095832</v>
+        <v>59.584090110959</v>
       </c>
       <c r="L7" t="n">
-        <v>76.24712125779443</v>
+        <v>76.2471212577953</v>
       </c>
       <c r="M7" t="n">
-        <v>80.39189873108407</v>
+        <v>80.39189873108499</v>
       </c>
       <c r="N7" t="n">
-        <v>78.48035906398766</v>
+        <v>78.48035906398856</v>
       </c>
       <c r="O7" t="n">
-        <v>72.48931400979504</v>
+        <v>72.48931400979586</v>
       </c>
       <c r="P7" t="n">
-        <v>62.02713105134502</v>
+        <v>62.02713105134573</v>
       </c>
       <c r="Q7" t="n">
-        <v>42.9443704234771</v>
+        <v>42.94437042347759</v>
       </c>
       <c r="R7" t="n">
-        <v>23.05969559380281</v>
+        <v>23.05969559380307</v>
       </c>
       <c r="S7" t="n">
-        <v>8.937613516643747</v>
+        <v>8.937613516643848</v>
       </c>
       <c r="T7" t="n">
-        <v>2.191277179354492</v>
+        <v>2.191277179354517</v>
       </c>
       <c r="U7" t="n">
-        <v>0.02797375122580207</v>
+        <v>0.02797375122580239</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31844,22 +31844,22 @@
         <v>443.9435090247271</v>
       </c>
       <c r="L12" t="n">
-        <v>596.9368339155585</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
         <v>696.597129487967</v>
       </c>
       <c r="N12" t="n">
-        <v>548.1235910649146</v>
+        <v>715.033982716063</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>654.1164009578284</v>
       </c>
       <c r="P12" t="n">
-        <v>524.9860796892351</v>
+        <v>515.895502843498</v>
       </c>
       <c r="Q12" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>170.6946332877214</v>
@@ -32078,22 +32078,22 @@
         <v>259.7437903115856</v>
       </c>
       <c r="K15" t="n">
-        <v>443.9435090247271</v>
+        <v>156.5246331350996</v>
       </c>
       <c r="L15" t="n">
         <v>596.9368339155585</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>696.597129487967</v>
       </c>
       <c r="N15" t="n">
-        <v>591.0665301174793</v>
+        <v>715.033982716063</v>
       </c>
       <c r="O15" t="n">
         <v>654.1164009578284</v>
       </c>
       <c r="P15" t="n">
-        <v>524.9860796892351</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>350.9392912691327</v>
@@ -32227,46 +32227,46 @@
         <v>5.138331138171345</v>
       </c>
       <c r="H17" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879731</v>
       </c>
       <c r="I17" t="n">
         <v>198.095511204351</v>
       </c>
       <c r="J17" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383707</v>
       </c>
       <c r="K17" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171638</v>
       </c>
       <c r="L17" t="n">
-        <v>810.8671910869753</v>
+        <v>810.8671910869754</v>
       </c>
       <c r="M17" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654299</v>
       </c>
       <c r="N17" t="n">
-        <v>916.8452708117592</v>
+        <v>916.8452708117594</v>
       </c>
       <c r="O17" t="n">
-        <v>865.7509905565679</v>
+        <v>865.750990556568</v>
       </c>
       <c r="P17" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829628</v>
       </c>
       <c r="Q17" t="n">
-        <v>554.8819566972012</v>
+        <v>554.8819566972013</v>
       </c>
       <c r="R17" t="n">
         <v>322.7706933581561</v>
       </c>
       <c r="S17" t="n">
-        <v>117.0897208110796</v>
+        <v>117.0897208110797</v>
       </c>
       <c r="T17" t="n">
-        <v>22.49304455734507</v>
+        <v>22.49304455734508</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537076</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32306,37 +32306,37 @@
         <v>2.749249533031963</v>
       </c>
       <c r="H18" t="n">
-        <v>26.55196259533501</v>
+        <v>26.55196259533502</v>
       </c>
       <c r="I18" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781103</v>
       </c>
       <c r="J18" t="n">
-        <v>259.7437903115856</v>
+        <v>165.0055127797827</v>
       </c>
       <c r="K18" t="n">
-        <v>443.9435090247271</v>
+        <v>443.9435090247272</v>
       </c>
       <c r="L18" t="n">
         <v>596.9368339155585</v>
       </c>
       <c r="M18" t="n">
-        <v>696.597129487967</v>
+        <v>696.5971294879671</v>
       </c>
       <c r="N18" t="n">
-        <v>452.630236150193</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>654.1164009578284</v>
+        <v>654.1164009578285</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>524.9860796892352</v>
       </c>
       <c r="Q18" t="n">
-        <v>350.9392912691327</v>
+        <v>350.9392912691328</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>170.6946332877214</v>
       </c>
       <c r="S18" t="n">
         <v>51.06610426486998</v>
@@ -32388,7 +32388,7 @@
         <v>20.49246481092592</v>
       </c>
       <c r="I19" t="n">
-        <v>69.31398118051422</v>
+        <v>69.31398118051423</v>
       </c>
       <c r="J19" t="n">
         <v>162.9549067838147</v>
@@ -32397,13 +32397,13 @@
         <v>267.7849696151667</v>
       </c>
       <c r="L19" t="n">
-        <v>342.6725659692048</v>
+        <v>342.6725659692049</v>
       </c>
       <c r="M19" t="n">
-        <v>361.3001745754553</v>
+        <v>361.3001745754554</v>
       </c>
       <c r="N19" t="n">
-        <v>352.7092639696482</v>
+        <v>352.7092639696483</v>
       </c>
       <c r="O19" t="n">
         <v>325.7840929246177</v>
@@ -32418,10 +32418,10 @@
         <v>103.6357167227398</v>
       </c>
       <c r="S19" t="n">
-        <v>40.16774544227499</v>
+        <v>40.167745442275</v>
       </c>
       <c r="T19" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925537</v>
       </c>
       <c r="U19" t="n">
         <v>0.1257206430118155</v>
@@ -32461,40 +32461,40 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.138331138171345</v>
+        <v>5.138331138171344</v>
       </c>
       <c r="H20" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879729</v>
       </c>
       <c r="I20" t="n">
-        <v>198.095511204351</v>
+        <v>198.0955112043509</v>
       </c>
       <c r="J20" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383705</v>
       </c>
       <c r="K20" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L20" t="n">
-        <v>810.8671910869753</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M20" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654296</v>
       </c>
       <c r="N20" t="n">
-        <v>916.8452708117592</v>
+        <v>916.8452708117591</v>
       </c>
       <c r="O20" t="n">
-        <v>865.7509905565679</v>
+        <v>865.7509905565677</v>
       </c>
       <c r="P20" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829625</v>
       </c>
       <c r="Q20" t="n">
-        <v>554.8819566972012</v>
+        <v>554.8819566972011</v>
       </c>
       <c r="R20" t="n">
-        <v>322.7706933581561</v>
+        <v>322.770693358156</v>
       </c>
       <c r="S20" t="n">
         <v>117.0897208110796</v>
@@ -32503,7 +32503,7 @@
         <v>22.49304455734507</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537074</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.749249533031963</v>
+        <v>2.749249533031962</v>
       </c>
       <c r="H21" t="n">
         <v>26.55196259533501</v>
       </c>
       <c r="I21" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781099</v>
       </c>
       <c r="J21" t="n">
-        <v>259.7437903115856</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L21" t="n">
-        <v>596.9368339155585</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>349.2837806975604</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N21" t="n">
-        <v>715.033982716063</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O21" t="n">
-        <v>654.1164009578284</v>
+        <v>434.0683069289812</v>
       </c>
       <c r="P21" t="n">
-        <v>524.9860796892351</v>
+        <v>524.986079689235</v>
       </c>
       <c r="Q21" t="n">
-        <v>350.9392912691327</v>
+        <v>350.9392912691326</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>170.6946332877214</v>
       </c>
       <c r="S21" t="n">
-        <v>51.06610426486998</v>
+        <v>51.06610426486996</v>
       </c>
       <c r="T21" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1808716798047345</v>
+        <v>0.1808716798047344</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32628,10 +32628,10 @@
         <v>69.31398118051422</v>
       </c>
       <c r="J22" t="n">
-        <v>162.9549067838147</v>
+        <v>162.9549067838146</v>
       </c>
       <c r="K22" t="n">
-        <v>267.7849696151667</v>
+        <v>267.7849696151666</v>
       </c>
       <c r="L22" t="n">
         <v>342.6725659692048</v>
@@ -32643,22 +32643,22 @@
         <v>352.7092639696482</v>
       </c>
       <c r="O22" t="n">
-        <v>325.7840929246177</v>
+        <v>325.7840929246176</v>
       </c>
       <c r="P22" t="n">
         <v>278.7645724381985</v>
       </c>
       <c r="Q22" t="n">
-        <v>193.0021404636386</v>
+        <v>193.0021404636385</v>
       </c>
       <c r="R22" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S22" t="n">
-        <v>40.16774544227499</v>
+        <v>40.16774544227498</v>
       </c>
       <c r="T22" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925533</v>
       </c>
       <c r="U22" t="n">
         <v>0.1257206430118155</v>
@@ -32698,40 +32698,40 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.138331138171345</v>
+        <v>5.138331138171344</v>
       </c>
       <c r="H23" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879729</v>
       </c>
       <c r="I23" t="n">
-        <v>198.095511204351</v>
+        <v>198.0955112043509</v>
       </c>
       <c r="J23" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383705</v>
       </c>
       <c r="K23" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L23" t="n">
-        <v>810.8671910869753</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M23" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654296</v>
       </c>
       <c r="N23" t="n">
-        <v>916.8452708117592</v>
+        <v>916.8452708117591</v>
       </c>
       <c r="O23" t="n">
-        <v>865.7509905565679</v>
+        <v>865.7509905565677</v>
       </c>
       <c r="P23" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829625</v>
       </c>
       <c r="Q23" t="n">
-        <v>554.8819566972012</v>
+        <v>554.8819566972011</v>
       </c>
       <c r="R23" t="n">
-        <v>322.7706933581561</v>
+        <v>322.770693358156</v>
       </c>
       <c r="S23" t="n">
         <v>117.0897208110796</v>
@@ -32740,7 +32740,7 @@
         <v>22.49304455734507</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537074</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.749249533031963</v>
+        <v>2.749249533031962</v>
       </c>
       <c r="H24" t="n">
         <v>26.55196259533501</v>
       </c>
       <c r="I24" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781099</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L24" t="n">
-        <v>382.5296487700709</v>
+        <v>262.3699665790566</v>
       </c>
       <c r="M24" t="n">
-        <v>696.597129487967</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N24" t="n">
-        <v>715.033982716063</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O24" t="n">
-        <v>654.1164009578284</v>
+        <v>654.1164009578283</v>
       </c>
       <c r="P24" t="n">
-        <v>524.9860796892351</v>
+        <v>524.986079689235</v>
       </c>
       <c r="Q24" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>170.6946332877214</v>
       </c>
       <c r="S24" t="n">
-        <v>51.06610426486998</v>
+        <v>51.06610426486996</v>
       </c>
       <c r="T24" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1808716798047345</v>
+        <v>0.1808716798047344</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32865,10 +32865,10 @@
         <v>69.31398118051422</v>
       </c>
       <c r="J25" t="n">
-        <v>162.9549067838147</v>
+        <v>162.9549067838146</v>
       </c>
       <c r="K25" t="n">
-        <v>267.7849696151667</v>
+        <v>267.7849696151666</v>
       </c>
       <c r="L25" t="n">
         <v>342.6725659692048</v>
@@ -32880,22 +32880,22 @@
         <v>352.7092639696482</v>
       </c>
       <c r="O25" t="n">
-        <v>325.7840929246177</v>
+        <v>325.7840929246176</v>
       </c>
       <c r="P25" t="n">
         <v>278.7645724381985</v>
       </c>
       <c r="Q25" t="n">
-        <v>193.0021404636386</v>
+        <v>193.0021404636385</v>
       </c>
       <c r="R25" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S25" t="n">
-        <v>40.16774544227499</v>
+        <v>40.16774544227498</v>
       </c>
       <c r="T25" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925533</v>
       </c>
       <c r="U25" t="n">
         <v>0.1257206430118155</v>
@@ -32935,40 +32935,40 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.138331138171345</v>
+        <v>5.138331138171344</v>
       </c>
       <c r="H26" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879729</v>
       </c>
       <c r="I26" t="n">
-        <v>198.095511204351</v>
+        <v>198.0955112043509</v>
       </c>
       <c r="J26" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383705</v>
       </c>
       <c r="K26" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L26" t="n">
-        <v>810.8671910869753</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M26" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654296</v>
       </c>
       <c r="N26" t="n">
-        <v>916.8452708117592</v>
+        <v>916.8452708117591</v>
       </c>
       <c r="O26" t="n">
-        <v>865.7509905565679</v>
+        <v>865.7509905565677</v>
       </c>
       <c r="P26" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829625</v>
       </c>
       <c r="Q26" t="n">
-        <v>554.8819566972012</v>
+        <v>554.8819566972011</v>
       </c>
       <c r="R26" t="n">
-        <v>322.7706933581561</v>
+        <v>322.770693358156</v>
       </c>
       <c r="S26" t="n">
         <v>117.0897208110796</v>
@@ -32977,7 +32977,7 @@
         <v>22.49304455734507</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537074</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,13 +33014,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.749249533031963</v>
+        <v>2.749249533031962</v>
       </c>
       <c r="H27" t="n">
         <v>26.55196259533501</v>
       </c>
       <c r="I27" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781099</v>
       </c>
       <c r="J27" t="n">
         <v>126.8376266666667</v>
@@ -33029,34 +33029,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>357.5145194463132</v>
+        <v>568.4720366294247</v>
       </c>
       <c r="M27" t="n">
-        <v>696.597129487967</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N27" t="n">
-        <v>715.033982716063</v>
+        <v>715.0339827160628</v>
       </c>
       <c r="O27" t="n">
-        <v>654.1164009578284</v>
+        <v>654.1164009578283</v>
       </c>
       <c r="P27" t="n">
-        <v>524.9860796892351</v>
+        <v>524.986079689235</v>
       </c>
       <c r="Q27" t="n">
-        <v>350.9392912691327</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>170.6946332877214</v>
       </c>
       <c r="S27" t="n">
-        <v>51.06610426486998</v>
+        <v>51.06610426486996</v>
       </c>
       <c r="T27" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1808716798047345</v>
+        <v>0.1808716798047344</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33102,10 +33102,10 @@
         <v>69.31398118051422</v>
       </c>
       <c r="J28" t="n">
-        <v>162.9549067838147</v>
+        <v>162.9549067838146</v>
       </c>
       <c r="K28" t="n">
-        <v>267.7849696151667</v>
+        <v>267.7849696151666</v>
       </c>
       <c r="L28" t="n">
         <v>342.6725659692048</v>
@@ -33117,22 +33117,22 @@
         <v>352.7092639696482</v>
       </c>
       <c r="O28" t="n">
-        <v>325.7840929246177</v>
+        <v>325.7840929246176</v>
       </c>
       <c r="P28" t="n">
         <v>278.7645724381985</v>
       </c>
       <c r="Q28" t="n">
-        <v>193.0021404636386</v>
+        <v>193.0021404636385</v>
       </c>
       <c r="R28" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S28" t="n">
-        <v>40.16774544227499</v>
+        <v>40.16774544227498</v>
       </c>
       <c r="T28" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925533</v>
       </c>
       <c r="U28" t="n">
         <v>0.1257206430118155</v>
@@ -33172,40 +33172,40 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.138331138171345</v>
+        <v>5.138331138171344</v>
       </c>
       <c r="H29" t="n">
-        <v>52.6229337687973</v>
+        <v>52.62293376879729</v>
       </c>
       <c r="I29" t="n">
-        <v>198.095511204351</v>
+        <v>198.0955112043509</v>
       </c>
       <c r="J29" t="n">
-        <v>436.1094324383706</v>
+        <v>436.1094324383705</v>
       </c>
       <c r="K29" t="n">
-        <v>653.6149895171637</v>
+        <v>653.6149895171636</v>
       </c>
       <c r="L29" t="n">
-        <v>810.8671910869753</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M29" t="n">
-        <v>902.2459874654298</v>
+        <v>902.2459874654296</v>
       </c>
       <c r="N29" t="n">
-        <v>916.8452708117592</v>
+        <v>916.8452708117591</v>
       </c>
       <c r="O29" t="n">
-        <v>865.7509905565679</v>
+        <v>865.7509905565677</v>
       </c>
       <c r="P29" t="n">
-        <v>738.8984405829626</v>
+        <v>738.8984405829625</v>
       </c>
       <c r="Q29" t="n">
-        <v>554.8819566972012</v>
+        <v>554.8819566972011</v>
       </c>
       <c r="R29" t="n">
-        <v>322.7706933581561</v>
+        <v>322.770693358156</v>
       </c>
       <c r="S29" t="n">
         <v>117.0897208110796</v>
@@ -33214,7 +33214,7 @@
         <v>22.49304455734507</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4110664910537075</v>
+        <v>0.4110664910537074</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.749249533031963</v>
+        <v>2.749249533031962</v>
       </c>
       <c r="H30" t="n">
         <v>26.55196259533501</v>
       </c>
       <c r="I30" t="n">
-        <v>94.65617909781101</v>
+        <v>94.65617909781099</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>357.5145194463132</v>
+        <v>596.9368339155584</v>
       </c>
       <c r="M30" t="n">
-        <v>696.597129487967</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N30" t="n">
-        <v>715.033982716063</v>
+        <v>342.7055046018995</v>
       </c>
       <c r="O30" t="n">
-        <v>654.1164009578284</v>
+        <v>654.1164009578283</v>
       </c>
       <c r="P30" t="n">
-        <v>524.9860796892351</v>
+        <v>524.986079689235</v>
       </c>
       <c r="Q30" t="n">
-        <v>350.9392912691327</v>
+        <v>350.9392912691326</v>
       </c>
       <c r="R30" t="n">
         <v>170.6946332877214</v>
       </c>
       <c r="S30" t="n">
-        <v>51.06610426486998</v>
+        <v>51.06610426486996</v>
       </c>
       <c r="T30" t="n">
         <v>11.08140491603672</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1808716798047345</v>
+        <v>0.1808716798047344</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33339,10 +33339,10 @@
         <v>69.31398118051422</v>
       </c>
       <c r="J31" t="n">
-        <v>162.9549067838147</v>
+        <v>162.9549067838146</v>
       </c>
       <c r="K31" t="n">
-        <v>267.7849696151667</v>
+        <v>267.7849696151666</v>
       </c>
       <c r="L31" t="n">
         <v>342.6725659692048</v>
@@ -33354,22 +33354,22 @@
         <v>352.7092639696482</v>
       </c>
       <c r="O31" t="n">
-        <v>325.7840929246177</v>
+        <v>325.7840929246176</v>
       </c>
       <c r="P31" t="n">
         <v>278.7645724381985</v>
       </c>
       <c r="Q31" t="n">
-        <v>193.0021404636386</v>
+        <v>193.0021404636385</v>
       </c>
       <c r="R31" t="n">
         <v>103.6357167227398</v>
       </c>
       <c r="S31" t="n">
-        <v>40.16774544227499</v>
+        <v>40.16774544227498</v>
       </c>
       <c r="T31" t="n">
-        <v>9.848117035925535</v>
+        <v>9.848117035925533</v>
       </c>
       <c r="U31" t="n">
         <v>0.1257206430118155</v>
@@ -33497,13 +33497,13 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L33" t="n">
-        <v>357.5145194463138</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>696.5971294879669</v>
@@ -33512,7 +33512,7 @@
         <v>715.0339827160628</v>
       </c>
       <c r="O33" t="n">
-        <v>654.1164009578283</v>
+        <v>434.0683069289812</v>
       </c>
       <c r="P33" t="n">
         <v>524.986079689235</v>
@@ -33737,19 +33737,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>409.9392810184983</v>
       </c>
       <c r="L36" t="n">
         <v>596.9368339155584</v>
       </c>
       <c r="M36" t="n">
-        <v>482.1899443424795</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N36" t="n">
         <v>715.0339827160628</v>
       </c>
       <c r="O36" t="n">
-        <v>654.1164009578283</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>524.986079689235</v>
@@ -33758,7 +33758,7 @@
         <v>350.9392912691326</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>170.6946332877214</v>
       </c>
       <c r="S36" t="n">
         <v>51.06610426486996</v>
@@ -33971,10 +33971,10 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J39" t="n">
-        <v>208.297560928827</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K39" t="n">
-        <v>443.943509024727</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>596.9368339155584</v>
@@ -33986,16 +33986,16 @@
         <v>715.0339827160628</v>
       </c>
       <c r="O39" t="n">
-        <v>654.1164009578283</v>
+        <v>492.745440026776</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>524.986079689235</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>170.6946332877214</v>
       </c>
       <c r="S39" t="n">
         <v>51.06610426486996</v>
@@ -34208,7 +34208,7 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J42" t="n">
-        <v>259.7437903115855</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>443.943509024727</v>
@@ -34217,22 +34217,22 @@
         <v>596.9368339155584</v>
       </c>
       <c r="M42" t="n">
-        <v>645.1509001052084</v>
+        <v>696.5971294879669</v>
       </c>
       <c r="N42" t="n">
-        <v>715.0339827160628</v>
+        <v>169.5095981964501</v>
       </c>
       <c r="O42" t="n">
         <v>654.1164009578283</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>524.986079689235</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>350.9392912691326</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>170.6946332877214</v>
       </c>
       <c r="S42" t="n">
         <v>51.06610426486996</v>
@@ -34372,7 +34372,7 @@
         <v>653.6149895171636</v>
       </c>
       <c r="L44" t="n">
-        <v>810.8671910869739</v>
+        <v>810.867191086975</v>
       </c>
       <c r="M44" t="n">
         <v>902.2459874654296</v>
@@ -34445,16 +34445,16 @@
         <v>94.65617909781099</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>259.7437903115855</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>443.943509024727</v>
       </c>
       <c r="L45" t="n">
         <v>596.9368339155584</v>
       </c>
       <c r="M45" t="n">
-        <v>482.1899443424795</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>715.0339827160628</v>
@@ -34463,13 +34463,13 @@
         <v>654.1164009578283</v>
       </c>
       <c r="P45" t="n">
-        <v>524.986079689235</v>
+        <v>401.0186270906521</v>
       </c>
       <c r="Q45" t="n">
         <v>350.9392912691326</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>170.6946332877214</v>
       </c>
       <c r="S45" t="n">
         <v>51.06610426486996</v>
@@ -34936,22 +34936,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>27.75851419067629</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>26.63695806175833</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>27.75851419067448</v>
+        <v>27.75851419067629</v>
       </c>
       <c r="O5" t="n">
-        <v>27.75851419067448</v>
+        <v>27.75851419067629</v>
       </c>
       <c r="P5" t="n">
-        <v>27.75851419067448</v>
+        <v>26.63695806176008</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35012,22 +35012,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>27.75851419067448</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>27.75851419067629</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>13.77309873347852</v>
       </c>
       <c r="M6" t="n">
-        <v>26.63695806175833</v>
+        <v>12.86385932828156</v>
       </c>
       <c r="N6" t="n">
-        <v>27.75851419067448</v>
+        <v>27.75851419067629</v>
       </c>
       <c r="O6" t="n">
-        <v>27.75851419067448</v>
+        <v>27.75851419067629</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>27.75851419067448</v>
+        <v>27.75851419067629</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>26.63695806176008</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>27.75851419067448</v>
+        <v>27.75851419067629</v>
       </c>
       <c r="O7" t="n">
-        <v>27.75851419067448</v>
+        <v>27.75851419067629</v>
       </c>
       <c r="P7" t="n">
-        <v>26.63695806175833</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35249,16 +35249,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>66.78462588923557</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>68.29072693268387</v>
+        <v>76.57784544264126</v>
       </c>
       <c r="L9" t="n">
         <v>138.615755571408</v>
       </c>
       <c r="M9" t="n">
-        <v>181.3104407622271</v>
+        <v>239.8079481415051</v>
       </c>
       <c r="N9" t="n">
         <v>200.663375406732</v>
@@ -35337,19 +35337,19 @@
         <v>186.6999948493115</v>
       </c>
       <c r="M10" t="n">
-        <v>150.3034296918718</v>
+        <v>207.3430310295333</v>
       </c>
       <c r="N10" t="n">
         <v>207.9023887233377</v>
       </c>
       <c r="O10" t="n">
-        <v>175.8534296854534</v>
+        <v>115.3609804484383</v>
       </c>
       <c r="P10" t="n">
         <v>126.7147238369855</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>3.452847899353443</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35492,22 +35492,22 @@
         <v>306.1020700503681</v>
       </c>
       <c r="L12" t="n">
-        <v>458.3824541356843</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>554.4630955659486</v>
       </c>
       <c r="N12" t="n">
-        <v>416.7818789815813</v>
+        <v>583.6922706327297</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>511.520156513384</v>
       </c>
       <c r="P12" t="n">
-        <v>391.0116722749049</v>
+        <v>381.9210954291677</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>25.01512932375746</v>
@@ -35726,22 +35726,22 @@
         <v>132.9061636449189</v>
       </c>
       <c r="K15" t="n">
-        <v>306.1020700503681</v>
+        <v>18.68319416074064</v>
       </c>
       <c r="L15" t="n">
         <v>458.3824541356843</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N15" t="n">
-        <v>459.724818034146</v>
+        <v>583.6922706327297</v>
       </c>
       <c r="O15" t="n">
         <v>511.520156513384</v>
       </c>
       <c r="P15" t="n">
-        <v>391.0116722749049</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>210.9575171831112</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>69.59572666714203</v>
+        <v>69.59572666714189</v>
       </c>
       <c r="K16" t="n">
-        <v>245.515477789284</v>
+        <v>245.5154777892838</v>
       </c>
       <c r="L16" t="n">
-        <v>370.2625912295211</v>
+        <v>370.2625912295209</v>
       </c>
       <c r="M16" t="n">
-        <v>400.884051537296</v>
+        <v>400.8840515372959</v>
       </c>
       <c r="N16" t="n">
-        <v>396.841436348877</v>
+        <v>396.8414363488769</v>
       </c>
       <c r="O16" t="n">
-        <v>350.3692208386574</v>
+        <v>350.3692208386573</v>
       </c>
       <c r="P16" t="n">
-        <v>276.0431317030921</v>
+        <v>276.043131703092</v>
       </c>
       <c r="Q16" t="n">
-        <v>106.8400972119443</v>
+        <v>106.8400972119442</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116844</v>
       </c>
       <c r="K17" t="n">
-        <v>433.5251384721832</v>
+        <v>433.5251384721833</v>
       </c>
       <c r="L17" t="n">
         <v>575.1007761169881</v>
       </c>
       <c r="M17" t="n">
-        <v>671.8997542381571</v>
+        <v>671.8997542381572</v>
       </c>
       <c r="N17" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151685</v>
       </c>
       <c r="O17" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348813</v>
       </c>
       <c r="P17" t="n">
-        <v>507.6654448276929</v>
+        <v>507.6654448276933</v>
       </c>
       <c r="Q17" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227518</v>
       </c>
       <c r="R17" t="n">
-        <v>107.1851555440239</v>
+        <v>107.185155544024</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>132.9061636449189</v>
+        <v>38.16788611311596</v>
       </c>
       <c r="K18" t="n">
-        <v>306.1020700503681</v>
+        <v>306.1020700503682</v>
       </c>
       <c r="L18" t="n">
         <v>458.3824541356843</v>
       </c>
       <c r="M18" t="n">
-        <v>554.4630955659486</v>
+        <v>554.4630955659488</v>
       </c>
       <c r="N18" t="n">
-        <v>321.2885240668597</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>511.520156513384</v>
+        <v>511.5201565133841</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>391.011672274905</v>
       </c>
       <c r="Q18" t="n">
         <v>210.9575171831112</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>25.01512932375749</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36054,7 +36054,7 @@
         <v>428.4516387010908</v>
       </c>
       <c r="O19" t="n">
-        <v>381.9794231908712</v>
+        <v>381.9794231908713</v>
       </c>
       <c r="P19" t="n">
         <v>307.6533340553059</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116842</v>
       </c>
       <c r="K20" t="n">
-        <v>433.5251384721832</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L20" t="n">
-        <v>575.1007761169881</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M20" t="n">
-        <v>671.899754238157</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N20" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151681</v>
       </c>
       <c r="O20" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P20" t="n">
-        <v>507.6654448276931</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q20" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R20" t="n">
-        <v>107.1851555440239</v>
+        <v>107.1851555440256</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>132.9061636449189</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L21" t="n">
-        <v>458.3824541356843</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>207.1497467755421</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N21" t="n">
-        <v>583.6922706327297</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O21" t="n">
-        <v>511.520156513384</v>
+        <v>291.4720624845368</v>
       </c>
       <c r="P21" t="n">
-        <v>391.0116722749049</v>
+        <v>391.0116722749048</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.9575171831112</v>
+        <v>210.9575171831111</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>25.01512932375741</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36279,22 +36279,22 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K22" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L22" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M22" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N22" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O22" t="n">
         <v>381.9794231908712</v>
       </c>
       <c r="P22" t="n">
-        <v>307.6533340553059</v>
+        <v>307.6533340553058</v>
       </c>
       <c r="Q22" t="n">
         <v>138.4502995641581</v>
@@ -36355,28 +36355,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>255.063527911684</v>
+        <v>255.0635279116842</v>
       </c>
       <c r="K23" t="n">
-        <v>433.5251384721832</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L23" t="n">
-        <v>575.1007761169881</v>
+        <v>575.1007761169894</v>
       </c>
       <c r="M23" t="n">
-        <v>671.8997542381571</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N23" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151681</v>
       </c>
       <c r="O23" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P23" t="n">
-        <v>507.6654448276931</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q23" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R23" t="n">
         <v>107.1851555440239</v>
@@ -36437,28 +36437,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L24" t="n">
-        <v>243.9752689901967</v>
+        <v>123.8155867991825</v>
       </c>
       <c r="M24" t="n">
         <v>554.4630955659486</v>
       </c>
       <c r="N24" t="n">
-        <v>583.6922706327297</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O24" t="n">
-        <v>511.520156513384</v>
+        <v>511.5201565133839</v>
       </c>
       <c r="P24" t="n">
-        <v>391.0116722749049</v>
+        <v>391.0116722749048</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>25.01512932375741</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36516,22 +36516,22 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K25" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L25" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M25" t="n">
         <v>432.4942538895098</v>
       </c>
       <c r="N25" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O25" t="n">
         <v>381.9794231908712</v>
       </c>
       <c r="P25" t="n">
-        <v>307.6533340553059</v>
+        <v>307.6533340553058</v>
       </c>
       <c r="Q25" t="n">
         <v>138.4502995641581</v>
@@ -36592,28 +36592,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116842</v>
       </c>
       <c r="K26" t="n">
-        <v>433.5251384721832</v>
+        <v>433.5251384721837</v>
       </c>
       <c r="L26" t="n">
-        <v>575.1007761169881</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M26" t="n">
-        <v>671.8997542381571</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N26" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151681</v>
       </c>
       <c r="O26" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P26" t="n">
-        <v>507.6654448276931</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q26" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227516</v>
       </c>
       <c r="R26" t="n">
         <v>107.1851555440239</v>
@@ -36677,25 +36677,25 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>218.9601396664391</v>
+        <v>429.9176568495505</v>
       </c>
       <c r="M27" t="n">
         <v>554.4630955659486</v>
       </c>
       <c r="N27" t="n">
-        <v>583.6922706327297</v>
+        <v>583.6922706327296</v>
       </c>
       <c r="O27" t="n">
-        <v>511.520156513384</v>
+        <v>511.5201565133839</v>
       </c>
       <c r="P27" t="n">
-        <v>391.0116722749049</v>
+        <v>391.0116722749048</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.9575171831112</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>25.01512932375746</v>
+        <v>25.01512932375741</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>101.205929019356</v>
+        <v>101.2059290193558</v>
       </c>
       <c r="K28" t="n">
-        <v>277.1256801414979</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L28" t="n">
-        <v>401.872793581735</v>
+        <v>401.8727935817349</v>
       </c>
       <c r="M28" t="n">
-        <v>432.49425388951</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N28" t="n">
-        <v>428.4516387010909</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O28" t="n">
-        <v>381.9794231908714</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P28" t="n">
-        <v>307.6533340553061</v>
+        <v>307.6533340553059</v>
       </c>
       <c r="Q28" t="n">
-        <v>138.4502995641583</v>
+        <v>138.4502995641581</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,28 +36829,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>255.0635279116843</v>
+        <v>255.0635279116842</v>
       </c>
       <c r="K29" t="n">
-        <v>433.5251384721832</v>
+        <v>433.5251384721831</v>
       </c>
       <c r="L29" t="n">
-        <v>575.1007761169881</v>
+        <v>575.1007761169878</v>
       </c>
       <c r="M29" t="n">
-        <v>671.8997542381571</v>
+        <v>671.8997542381569</v>
       </c>
       <c r="N29" t="n">
-        <v>687.4322072151683</v>
+        <v>687.4322072151681</v>
       </c>
       <c r="O29" t="n">
-        <v>635.6527791348811</v>
+        <v>635.6527791348809</v>
       </c>
       <c r="P29" t="n">
-        <v>507.6654448276931</v>
+        <v>507.665444827693</v>
       </c>
       <c r="Q29" t="n">
-        <v>332.5762668227517</v>
+        <v>332.5762668227535</v>
       </c>
       <c r="R29" t="n">
         <v>107.1851555440239</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>218.960139666439</v>
+        <v>458.3824541356842</v>
       </c>
       <c r="M30" t="n">
         <v>554.4630955659486</v>
       </c>
       <c r="N30" t="n">
-        <v>583.6922706327297</v>
+        <v>211.3637925185662</v>
       </c>
       <c r="O30" t="n">
-        <v>511.520156513384</v>
+        <v>511.5201565133839</v>
       </c>
       <c r="P30" t="n">
-        <v>391.0116722749049</v>
+        <v>391.0116722749048</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.9575171831112</v>
+        <v>210.9575171831111</v>
       </c>
       <c r="R30" t="n">
-        <v>25.01512932375746</v>
+        <v>25.01512932375741</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36996,13 +36996,13 @@
         <v>401.8727935817349</v>
       </c>
       <c r="M31" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N31" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010907</v>
       </c>
       <c r="O31" t="n">
-        <v>381.9794231908713</v>
+        <v>381.9794231908712</v>
       </c>
       <c r="P31" t="n">
         <v>307.6533340553059</v>
@@ -37145,13 +37145,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L33" t="n">
-        <v>218.9601396664396</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>554.4630955659486</v>
@@ -37160,7 +37160,7 @@
         <v>583.6922706327296</v>
       </c>
       <c r="O33" t="n">
-        <v>511.5201565133839</v>
+        <v>291.4720624845368</v>
       </c>
       <c r="P33" t="n">
         <v>391.0116722749048</v>
@@ -37227,7 +37227,7 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K34" t="n">
-        <v>277.1256801414977</v>
+        <v>277.1256801414978</v>
       </c>
       <c r="L34" t="n">
         <v>401.8727935817349</v>
@@ -37385,19 +37385,19 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>272.0978420441393</v>
       </c>
       <c r="L36" t="n">
         <v>458.3824541356842</v>
       </c>
       <c r="M36" t="n">
-        <v>340.0559104204611</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N36" t="n">
         <v>583.6922706327296</v>
       </c>
       <c r="O36" t="n">
-        <v>511.5201565133839</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>391.0116722749048</v>
@@ -37406,7 +37406,7 @@
         <v>210.9575171831111</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>25.01512932375741</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,22 +37464,22 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K37" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L37" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M37" t="n">
-        <v>432.4942538895099</v>
+        <v>432.4942538895098</v>
       </c>
       <c r="N37" t="n">
-        <v>428.4516387010908</v>
+        <v>428.4516387010906</v>
       </c>
       <c r="O37" t="n">
         <v>381.9794231908712</v>
       </c>
       <c r="P37" t="n">
-        <v>307.6533340553059</v>
+        <v>307.6533340553058</v>
       </c>
       <c r="Q37" t="n">
         <v>138.4502995641581</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>81.45993426216026</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K39" t="n">
-        <v>306.102070050368</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>458.3824541356842</v>
@@ -37634,16 +37634,16 @@
         <v>583.6922706327296</v>
       </c>
       <c r="O39" t="n">
-        <v>511.5201565133839</v>
+        <v>350.1491955823316</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>391.0116722749048</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>25.01512932375741</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,7 +37701,7 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K40" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L40" t="n">
         <v>401.8727935817349</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>132.9061636449188</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>306.102070050368</v>
@@ -37865,22 +37865,22 @@
         <v>458.3824541356842</v>
       </c>
       <c r="M42" t="n">
-        <v>503.01686618319</v>
+        <v>554.4630955659486</v>
       </c>
       <c r="N42" t="n">
-        <v>583.6922706327296</v>
+        <v>38.16788611311679</v>
       </c>
       <c r="O42" t="n">
         <v>511.5201565133839</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>391.0116722749048</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.9575171831111</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>25.01512932375741</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38020,7 +38020,7 @@
         <v>433.5251384721831</v>
       </c>
       <c r="L44" t="n">
-        <v>575.1007761169867</v>
+        <v>575.1007761169886</v>
       </c>
       <c r="M44" t="n">
         <v>671.8997542381569</v>
@@ -38093,16 +38093,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>132.9061636449188</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>306.102070050368</v>
       </c>
       <c r="L45" t="n">
         <v>458.3824541356842</v>
       </c>
       <c r="M45" t="n">
-        <v>340.0559104204611</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>583.6922706327296</v>
@@ -38111,13 +38111,13 @@
         <v>511.5201565133839</v>
       </c>
       <c r="P45" t="n">
-        <v>391.0116722749048</v>
+        <v>267.0442196763219</v>
       </c>
       <c r="Q45" t="n">
         <v>210.9575171831111</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>25.01512932375741</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,10 +38175,10 @@
         <v>101.2059290193558</v>
       </c>
       <c r="K46" t="n">
-        <v>277.1256801414978</v>
+        <v>277.1256801414977</v>
       </c>
       <c r="L46" t="n">
-        <v>401.8727935817349</v>
+        <v>401.8727935817348</v>
       </c>
       <c r="M46" t="n">
         <v>432.4942538895098</v>
